--- a/Opal Lakes Dropbear Conservation Park.xlsx
+++ b/Opal Lakes Dropbear Conservation Park.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004548DF-442C-1347-8FC5-C8058F068784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64070C0D-C530-A844-B6DE-E70349163A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1935,14 +1935,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>97776</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>125090</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>27312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>507794</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>81936</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>27313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1957,8 +1957,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11514120" y="8018208"/>
-          <a:ext cx="6678083" cy="666954"/>
+          <a:off x="11514120" y="7920430"/>
+          <a:ext cx="6678083" cy="1092474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2016,6 +2016,31 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Annual cost of dropbear impact of $20 million incurred by NSW farmers. Not relevant for analysis as this cost has been superseded by the Volunteer Brigade.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:pPr algn="just"/>
           <a:endParaRPr lang="en-AU" sz="1100" b="0"/>
         </a:p>
@@ -2028,13 +2053,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>122903</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>27312</xdr:rowOff>
+      <xdr:rowOff>122903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>532921</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>122904</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>27312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2049,7 +2074,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11539247" y="8821721"/>
+          <a:off x="11539247" y="9108494"/>
           <a:ext cx="6678083" cy="2007420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3735,8 +3760,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Opal Lakes Dropbear Conservation Park.xlsx
+++ b/Opal Lakes Dropbear Conservation Park.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64070C0D-C530-A844-B6DE-E70349163A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFBB951-5605-3C40-A333-DBB652BFF851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="DiscountRate">[1]Parameters!$C$8</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="103">
   <si>
     <t>Source</t>
   </si>
@@ -330,18 +331,6 @@
     <t>Avoided cost operating Brigade</t>
   </si>
   <si>
-    <t>Fencing</t>
-  </si>
-  <si>
-    <t>Holding pens</t>
-  </si>
-  <si>
-    <t>Viewing platforms</t>
-  </si>
-  <si>
-    <t>Year 0 ($'000) 21/22</t>
-  </si>
-  <si>
     <t>Total Benefit</t>
   </si>
   <si>
@@ -355,13 +344,19 @@
   </si>
   <si>
     <t>Labour</t>
+  </si>
+  <si>
+    <t>Asset life (years)</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -372,6 +367,7 @@
     <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00_-;\(&quot;$&quot;#,##0.00\);\-_;"/>
     <numFmt numFmtId="171" formatCode="#,##0_-;\(#,##0\);\-_;"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0_-;\(&quot;$&quot;#,##0\);\-_;"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -854,7 +850,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -972,7 +968,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="9" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="16" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1"/>
@@ -989,6 +984,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Bad 2" xfId="1" xr:uid="{B03EBECC-4434-4525-8FB0-19D98432DF3E}"/>
@@ -2050,350 +2054,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>122903</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>122903</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>532921</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>27312</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E565B5-157B-E044-93B6-41E04E2FE4E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11539247" y="9108494"/>
-          <a:ext cx="6678083" cy="2007420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Assets, including fencing, holding pens, and viewing platforms, are expected to last for </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>5 years</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> due to heavy damage caused by dropbears.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Additional capital expenditures (capex) for these assets in Year 1 (2022/23) are as follows:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Fencing</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: $2 million</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Holding pens</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: $2 million</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Viewing platforms</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: $3 million</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>These assets will also be depreciated over </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>5 years</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, starting from Year 1.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>At the end of the 5-year analysis period, the estimated scrap values are:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Fencing</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: $400 thousand</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Holding pens</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: $400 thousand</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Viewing platforms</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: $600 thousand</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="just"/>
-          <a:endParaRPr lang="en-AU" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1379247</xdr:colOff>
       <xdr:row>56</xdr:row>
@@ -2562,6 +2222,36 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Notes"/>
+      <sheetName val="Economic Data and Calculations"/>
+      <sheetName val="CapEx and Funding"/>
+      <sheetName val="Cost-Benefit Analysis"/>
+      <sheetName val="Minister Brief (sample answers)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="14">
+          <cell r="F14">
+            <v>160.84</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3760,8 +3450,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4037,7 +3727,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B26" s="56" t="s">
         <v>88</v>
@@ -4065,23 +3755,23 @@
       <c r="B27" s="11">
         <v>200</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="64">
         <f>$B27*2*C22</f>
         <v>40000</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="64">
         <f t="shared" ref="D27:G27" si="1">$B27*2*D22</f>
         <v>80000</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="64">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="F27" s="65">
+      <c r="F27" s="64">
         <f t="shared" si="1"/>
         <v>112000</v>
       </c>
-      <c r="G27" s="65">
+      <c r="G27" s="64">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
@@ -4093,23 +3783,23 @@
       <c r="B28" s="11">
         <v>100</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="64">
         <f t="shared" ref="C28:G29" si="2">$B28*2*C23</f>
         <v>10000</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="64">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="64">
         <f t="shared" si="2"/>
         <v>25000</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="64">
         <f t="shared" si="2"/>
         <v>28000</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="64">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
@@ -4121,23 +3811,23 @@
       <c r="B29" s="11">
         <v>300</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="64">
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="64">
         <f t="shared" si="2"/>
         <v>180000</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="64">
         <f t="shared" si="2"/>
         <v>225000</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="64">
         <f t="shared" si="2"/>
         <v>252000</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="64">
         <f t="shared" si="2"/>
         <v>270000</v>
       </c>
@@ -4145,32 +3835,32 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="66">
+        <v>96</v>
+      </c>
+      <c r="C30" s="65">
         <f>SUM(C27:C29)</f>
         <v>140000</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="65">
         <f t="shared" ref="D30:G30" si="3">SUM(D27:D29)</f>
         <v>280000</v>
       </c>
-      <c r="E30" s="66">
+      <c r="E30" s="65">
         <f t="shared" si="3"/>
         <v>350000</v>
       </c>
-      <c r="F30" s="66">
+      <c r="F30" s="65">
         <f t="shared" si="3"/>
         <v>392000</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="65">
         <f t="shared" si="3"/>
         <v>420000</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="57" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B32" s="58" t="s">
         <v>89</v>
@@ -4187,93 +3877,93 @@
       <c r="F32" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="68"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="65">
+        <v>99</v>
+      </c>
+      <c r="B33" s="64">
         <f>(C27+C28)*0.09</f>
         <v>4500</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="64">
         <f t="shared" ref="C33:F33" si="4">(D27+D28)*0.09</f>
         <v>9000</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="64">
         <f t="shared" si="4"/>
         <v>11250</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="64">
         <f t="shared" si="4"/>
         <v>12600</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="64">
         <f t="shared" si="4"/>
         <v>13500</v>
       </c>
-      <c r="G33" s="70"/>
+      <c r="G33" s="69"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="67">
+        <v>100</v>
+      </c>
+      <c r="B34" s="66">
         <f>(C27+C28)*0.11</f>
         <v>5500</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="66">
         <f t="shared" ref="C34:F34" si="5">(D27+D28)*0.11</f>
         <v>11000</v>
       </c>
-      <c r="D34" s="67">
+      <c r="D34" s="66">
         <f t="shared" si="5"/>
         <v>13750</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="66">
         <f t="shared" si="5"/>
         <v>15400</v>
       </c>
-      <c r="F34" s="67">
+      <c r="F34" s="66">
         <f t="shared" si="5"/>
         <v>16500</v>
       </c>
-      <c r="G34" s="70"/>
+      <c r="G34" s="69"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="66">
+        <v>96</v>
+      </c>
+      <c r="B35" s="65">
         <f>SUM(B33:B34)</f>
         <v>10000</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="65">
         <f>SUM(C33:C34)</f>
         <v>20000</v>
       </c>
-      <c r="D35" s="66">
+      <c r="D35" s="65">
         <f>SUM(D33:D34)</f>
         <v>25000</v>
       </c>
-      <c r="E35" s="66">
+      <c r="E35" s="65">
         <f>SUM(E33:E34)</f>
         <v>28000</v>
       </c>
-      <c r="F35" s="66">
+      <c r="F35" s="65">
         <f>SUM(F33:F34)</f>
         <v>30000</v>
       </c>
-      <c r="G35" s="70"/>
+      <c r="G35" s="69"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
@@ -4340,156 +4030,89 @@
       <c r="G47" s="36"/>
       <c r="H47" s="36"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" s="58" t="s">
-        <v>93</v>
-      </c>
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="35">
-        <f>38000000/1000</f>
-        <v>38000</v>
-      </c>
-      <c r="C49" s="35">
-        <f>$B$49/5*(5-C$52)+2000/5*(5-C$52+1)</f>
-        <v>32400</v>
-      </c>
-      <c r="D49" s="35">
-        <f t="shared" ref="D49:G49" si="7">$B$49/5*(5-D$52)+2000/5*(5-D$52+1)</f>
-        <v>24400</v>
-      </c>
-      <c r="E49" s="35">
-        <f t="shared" si="7"/>
-        <v>16400</v>
-      </c>
-      <c r="F49" s="35">
-        <f t="shared" si="7"/>
-        <v>8400</v>
-      </c>
-      <c r="G49" s="35">
-        <f t="shared" si="7"/>
-        <v>400</v>
-      </c>
+      <c r="A49" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="70"/>
+      <c r="D49" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="35">
-        <v>10000</v>
-      </c>
-      <c r="C50" s="35">
-        <f>$B$50/5*(5-C$52)+2000/5*(5-C$52+1)</f>
-        <v>10000</v>
-      </c>
-      <c r="D50" s="35">
-        <f t="shared" ref="D50:F50" si="8">$B$50/5*(5-D$52)+2000/5*(5-D$52+1)</f>
-        <v>7600</v>
-      </c>
-      <c r="E50" s="35">
-        <f t="shared" si="8"/>
-        <v>5200</v>
-      </c>
-      <c r="F50" s="35">
-        <f t="shared" si="8"/>
-        <v>2800</v>
-      </c>
-      <c r="G50" s="35">
-        <f>$B$50/5*(5-G$52)+2000/5*(5-G$52+1)</f>
-        <v>400</v>
-      </c>
+      <c r="A50" s="73">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="70"/>
+      <c r="D50" s="73">
+        <v>5</v>
+      </c>
+      <c r="E50" s="74">
+        <f>'[2]CapEx and Funding'!F14*0</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="35">
-        <v>3000</v>
-      </c>
-      <c r="C51" s="35">
-        <f>$B$51/5*(5-C$52)+3000/5*(5-C$52+1)</f>
-        <v>5400</v>
-      </c>
-      <c r="D51" s="35">
-        <f t="shared" ref="D51:G51" si="9">$B$51/5*(5-D$52)+3000/5*(5-D$52+1)</f>
-        <v>4200</v>
-      </c>
-      <c r="E51" s="35">
-        <f t="shared" si="9"/>
-        <v>3000</v>
-      </c>
-      <c r="F51" s="35">
-        <f t="shared" si="9"/>
-        <v>1800</v>
-      </c>
-      <c r="G51" s="35">
-        <f t="shared" si="9"/>
-        <v>600</v>
-      </c>
+      <c r="A51" s="73">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="70"/>
+      <c r="D51" s="73">
+        <v>10</v>
+      </c>
+      <c r="E51" s="74">
+        <f>'[2]CapEx and Funding'!F14*5/D51*1000000</f>
+        <v>80420000</v>
+      </c>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C52" s="60">
-        <v>1</v>
-      </c>
-      <c r="D52" s="60">
-        <v>2</v>
-      </c>
-      <c r="E52" s="60">
-        <v>3</v>
-      </c>
-      <c r="F52" s="60">
-        <v>4</v>
-      </c>
-      <c r="G52" s="60">
-        <v>5</v>
-      </c>
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="35">
-        <f>SUM(B49:B51)</f>
-        <v>51000</v>
-      </c>
-      <c r="C53" s="35">
-        <f t="shared" ref="C53:G53" si="10">SUM(C49:C51)</f>
-        <v>47800</v>
-      </c>
-      <c r="D53" s="35">
-        <f t="shared" si="10"/>
-        <v>36200</v>
-      </c>
-      <c r="E53" s="35">
-        <f t="shared" si="10"/>
-        <v>24600</v>
-      </c>
-      <c r="F53" s="35">
-        <f t="shared" si="10"/>
-        <v>13000</v>
-      </c>
-      <c r="G53" s="35">
-        <f t="shared" si="10"/>
-        <v>1400</v>
-      </c>
+      <c r="A53" s="67"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
@@ -5017,16 +4640,16 @@
       <c r="A5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="60">
         <f>I19</f>
-        <v>1822466.8957163054</v>
+        <v>1665217.6936692854</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="60">
         <f>I24</f>
         <v>158170.20000000001</v>
       </c>
@@ -5061,9 +4684,9 @@
       <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="61">
         <f>C5-C6</f>
-        <v>1664296.6957163054</v>
+        <v>1507047.4936692854</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>34</v>
@@ -5098,18 +4721,18 @@
         <v>31</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="63">
+      <c r="C8" s="62">
         <f>C5/C6</f>
-        <v>11.522188729079847</v>
+        <v>10.528011557608735</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="63">
         <f>C7/S22</f>
-        <v>16.504330580288631</v>
+        <v>14.944937462011953</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
@@ -5433,62 +5056,62 @@
       </c>
       <c r="C18" s="27">
         <f>'Economic Data and Calculations'!B53*'Cost-Benefit Analysis'!M7</f>
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="D18" s="27">
         <f>'Economic Data and Calculations'!C53*'Cost-Benefit Analysis'!N7</f>
-        <v>44454</v>
+        <v>0</v>
       </c>
       <c r="E18" s="27">
         <f>'Economic Data and Calculations'!D53*'Cost-Benefit Analysis'!O7</f>
-        <v>31309.379999999997</v>
+        <v>0</v>
       </c>
       <c r="F18" s="27">
         <f>'Economic Data and Calculations'!E53*'Cost-Benefit Analysis'!P7</f>
-        <v>19787.182199999996</v>
+        <v>0</v>
       </c>
       <c r="G18" s="27">
         <f>'Economic Data and Calculations'!F53*'Cost-Benefit Analysis'!Q7</f>
-        <v>9724.6761299999962</v>
+        <v>0</v>
       </c>
       <c r="H18" s="27">
         <f>'Economic Data and Calculations'!G53*'Cost-Benefit Analysis'!R7</f>
-        <v>973.96371701999965</v>
+        <v>0</v>
       </c>
       <c r="I18" s="27">
         <f t="shared" si="2"/>
-        <v>157249.20204701999</v>
+        <v>0</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>41</v>
       </c>
       <c r="M18" s="16">
         <f>'Economic Data and Calculations'!B53</f>
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="N18" s="16">
         <f>'Economic Data and Calculations'!C53</f>
-        <v>47800</v>
+        <v>0</v>
       </c>
       <c r="O18" s="16">
         <f>'Economic Data and Calculations'!D53</f>
-        <v>36200</v>
+        <v>0</v>
       </c>
       <c r="P18" s="16">
         <f>'Economic Data and Calculations'!E53</f>
-        <v>24600</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="16">
         <f>'Economic Data and Calculations'!F53</f>
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="R18" s="16">
         <f>'Economic Data and Calculations'!G53</f>
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="S18" s="16">
         <f t="shared" si="3"/>
-        <v>174000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -5497,62 +5120,62 @@
       </c>
       <c r="C19" s="23">
         <f>SUM(C14:C18)</f>
-        <v>77043.199999999997</v>
+        <v>26043.200000000001</v>
       </c>
       <c r="D19" s="23">
         <f t="shared" ref="D19:I19" si="4">SUM(D14:D18)</f>
-        <v>224914.17600000001</v>
+        <v>180460.17600000001</v>
       </c>
       <c r="E19" s="23">
         <f t="shared" si="4"/>
-        <v>357414.04367999994</v>
+        <v>326104.66367999994</v>
       </c>
       <c r="F19" s="23">
         <f t="shared" si="4"/>
-        <v>390630.50742239988</v>
+        <v>370843.3252223999</v>
       </c>
       <c r="G19" s="23">
         <f t="shared" si="4"/>
-        <v>392310.78989083192</v>
+        <v>382586.11376083194</v>
       </c>
       <c r="H19" s="23">
         <f t="shared" si="4"/>
-        <v>380154.17872307368</v>
+        <v>379180.21500605368</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="4"/>
-        <v>1822466.8957163054</v>
+        <v>1665217.6936692854</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>2</v>
       </c>
       <c r="M19" s="23">
         <f>SUM(M14:M18)</f>
-        <v>26094200</v>
+        <v>26043200</v>
       </c>
       <c r="N19" s="23">
         <f t="shared" ref="N19:Q19" si="5">SUM(N14:N18)</f>
-        <v>26259000</v>
+        <v>26211200</v>
       </c>
       <c r="O19" s="23">
         <f t="shared" si="5"/>
-        <v>26430400</v>
+        <v>26394200</v>
       </c>
       <c r="P19" s="23">
         <f t="shared" si="5"/>
-        <v>26502800</v>
+        <v>26478200</v>
       </c>
       <c r="Q19" s="23">
         <f t="shared" si="5"/>
-        <v>26541600</v>
+        <v>26528600</v>
       </c>
       <c r="R19" s="23">
         <f t="shared" ref="R19" si="6">SUM(R14:R18)</f>
-        <v>26563600</v>
+        <v>26562200</v>
       </c>
       <c r="S19" s="23">
         <f t="shared" ref="S19" si="7">SUM(S14:S18)</f>
-        <v>158391600</v>
+        <v>158217600</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">

--- a/Opal Lakes Dropbear Conservation Park.xlsx
+++ b/Opal Lakes Dropbear Conservation Park.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFBB951-5605-3C40-A333-DBB652BFF851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069EDC46-EDB7-C54A-821C-A85242AE00DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="109">
   <si>
     <t>Source</t>
   </si>
@@ -350,13 +350,31 @@
   </si>
   <si>
     <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Costs ($m)</t>
+  </si>
+  <si>
+    <t>Total cost of project</t>
+  </si>
+  <si>
+    <t>NSW Government share of funding</t>
+  </si>
+  <si>
+    <t>Opal Lakes share of funding</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Same use with or without the project funding, so can be excluded from analysis.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -368,6 +386,7 @@
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00_-;\(&quot;$&quot;#,##0.00\);\-_;"/>
     <numFmt numFmtId="171" formatCode="#,##0_-;\(#,##0\);\-_;"/>
     <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0_-;\(&quot;$&quot;#,##0\);\-_;"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00_-;\(#,##0.00\);\-_;"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -850,7 +869,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,6 +1010,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2052,103 +2074,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1379247</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>328083</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0528BD-4C53-634C-888E-C1C4140E3E28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1379247" y="10897419"/>
-          <a:ext cx="6678083" cy="955914"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU"/>
-            <a:t>When operating, the new facility will have </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" b="1"/>
-            <a:t>high personnel and operating costs</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU"/>
-            <a:t>, but consultation within Opal Lakes Shire Council and with NSW Government staff suggest that there will be </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" b="1"/>
-            <a:t>matching cost savings</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU"/>
-            <a:t>: less medical staff at the Opal Lakes Hospital, less police officers called out for damage and injury reports, less Council staff responding to angry farmers and residents, etc.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-AU" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3448,10 +3373,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4125,6 +4050,55 @@
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
       <c r="H54" s="36"/>
+    </row>
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="75">
+        <f>'Capex and Funding'!F14</f>
+        <v>160.84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="75">
+        <f>'Capex and Funding'!N3</f>
+        <v>100.84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="75">
+        <f>A58-A59</f>
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Opal Lakes Dropbear Conservation Park.xlsx
+++ b/Opal Lakes Dropbear Conservation Park.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069EDC46-EDB7-C54A-821C-A85242AE00DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F11085-2B93-144A-B243-CCDC6A3F60F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
   <si>
     <t>Source</t>
   </si>
@@ -277,9 +277,6 @@
     <t>This section can be used to present the central estimate.</t>
   </si>
   <si>
-    <t>This section (the tables below) can be used to perform sensitivity tests.</t>
-  </si>
-  <si>
     <t>Length of stay (nights)</t>
   </si>
   <si>
@@ -368,14 +365,24 @@
   </si>
   <si>
     <t>Same use with or without the project funding, so can be excluded from analysis.</t>
+  </si>
+  <si>
+    <t>Sensitivity Switches</t>
+  </si>
+  <si>
+    <t>WTP ($/household)</t>
+  </si>
+  <si>
+    <t>Discount rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="15">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\);&quot;- &quot;"/>
@@ -387,8 +394,10 @@
     <numFmt numFmtId="171" formatCode="#,##0_-;\(#,##0\);\-_;"/>
     <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0_-;\(&quot;$&quot;#,##0\);\-_;"/>
     <numFmt numFmtId="173" formatCode="#,##0.00_-;\(#,##0.00\);\-_;"/>
+    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,12 +526,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -844,7 +847,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -868,8 +871,9 @@
     <xf numFmtId="168" fontId="14" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,7 +910,6 @@
     </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="9" xfId="7" applyFont="1"/>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="9" xfId="7" applyFont="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="9" xfId="7" applyFont="1"/>
     <xf numFmtId="1" fontId="10" fillId="7" borderId="10" xfId="8" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -926,9 +929,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -937,11 +940,11 @@
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="22" fillId="8" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="21" fillId="8" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -969,10 +972,10 @@
     <xf numFmtId="170" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -988,9 +991,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="9" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="9" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="3" fillId="13" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1004,7 +1005,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1015,14 +1016,36 @@
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="14" fillId="9" borderId="9" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="9" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="13" fillId="9" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="14" fillId="0" borderId="9" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="14" fillId="0" borderId="9" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="9" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="Bad 2" xfId="1" xr:uid="{B03EBECC-4434-4525-8FB0-19D98432DF3E}"/>
     <cellStyle name="Calc_num" xfId="7" xr:uid="{0F464BB7-0D42-4A65-A91F-78419A0B037B}"/>
     <cellStyle name="Calc_Perc" xfId="11" xr:uid="{110FF9C7-DCA4-4507-9DF0-E090DA0FF16F}"/>
     <cellStyle name="Cell.Input" xfId="5" xr:uid="{6B045C91-CF9F-4977-879E-C74B564FA8F0}"/>
     <cellStyle name="Cell.Input.Perc" xfId="6" xr:uid="{751E40A9-7C3E-4797-99D2-05909DFE5822}"/>
     <cellStyle name="Comma" xfId="13" builtinId="3"/>
+    <cellStyle name="Currency" xfId="14" builtinId="4"/>
     <cellStyle name="Header" xfId="4" xr:uid="{782A1C90-5938-4AA3-8A5B-331F183D7332}"/>
     <cellStyle name="Header Number" xfId="8" xr:uid="{CE982B2E-27A9-48DC-BC30-BFF3A8796245}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,7 +1055,88 @@
     <cellStyle name="Subtotal" xfId="10" xr:uid="{048A2B75-2695-4FFD-B2E0-F7B703E4CB59}"/>
     <cellStyle name="Variance" xfId="9" xr:uid="{20FF814E-717B-4D69-98D5-EE5EADF9900D}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2450,7 +2554,7 @@
   </sheetPr>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A3" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
@@ -3375,217 +3479,217 @@
   </sheetPr>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView showGridLines="0" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="16" style="35" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="35"/>
+    <col min="1" max="1" width="24.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="34" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="16" style="34" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
+      <c r="A2" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="37">
+      <c r="A7" s="36">
         <v>10</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="37">
+      <c r="A8" s="36">
         <v>7.5</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="37">
+      <c r="A9" s="36">
         <v>12</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>2604320</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="39">
+      <c r="A15" s="38">
         <v>10</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="39">
         <f>A15*$A$11</f>
         <v>26043200</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="39">
+      <c r="A16" s="38">
         <v>7.5</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="39">
         <f t="shared" ref="B16:B17" si="0">A16*$A$11</f>
         <v>19532400</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="39">
+      <c r="A17" s="38">
         <v>12</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="39">
         <f t="shared" si="0"/>
         <v>31251840</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="E21" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="F21" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="G21" s="55" t="s">
         <v>86</v>
-      </c>
-      <c r="G21" s="56" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="55">
+        <v>79</v>
+      </c>
+      <c r="B22" s="54">
         <v>2</v>
       </c>
       <c r="C22" s="11">
@@ -3606,9 +3710,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="55">
+        <v>80</v>
+      </c>
+      <c r="B23" s="54">
         <v>2</v>
       </c>
       <c r="C23" s="11">
@@ -3629,9 +3733,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="55">
+        <v>81</v>
+      </c>
+      <c r="B24" s="54">
         <v>2</v>
       </c>
       <c r="C24" s="11">
@@ -3652,276 +3756,276 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="D26" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="E26" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="F26" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="G26" s="55" t="s">
         <v>92</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="11">
         <v>200</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="61">
         <f>$B27*2*C22</f>
         <v>40000</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="61">
         <f t="shared" ref="D27:G27" si="1">$B27*2*D22</f>
         <v>80000</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="61">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="61">
         <f t="shared" si="1"/>
         <v>112000</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="61">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="11">
         <v>100</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="61">
         <f t="shared" ref="C28:G29" si="2">$B28*2*C23</f>
         <v>10000</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="61">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="61">
         <f t="shared" si="2"/>
         <v>25000</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="61">
         <f t="shared" si="2"/>
         <v>28000</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="61">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="11">
         <v>300</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="61">
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="61">
         <f t="shared" si="2"/>
         <v>180000</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="61">
         <f t="shared" si="2"/>
         <v>225000</v>
       </c>
-      <c r="F29" s="64">
+      <c r="F29" s="61">
         <f t="shared" si="2"/>
         <v>252000</v>
       </c>
-      <c r="G29" s="64">
+      <c r="G29" s="61">
         <f t="shared" si="2"/>
         <v>270000</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30"/>
-      <c r="B30" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="65">
+      <c r="B30" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="62">
         <f>SUM(C27:C29)</f>
         <v>140000</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="62">
         <f t="shared" ref="D30:G30" si="3">SUM(D27:D29)</f>
         <v>280000</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="62">
         <f t="shared" si="3"/>
         <v>350000</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="62">
         <f t="shared" si="3"/>
         <v>392000</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="62">
         <f t="shared" si="3"/>
         <v>420000</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="58" t="s">
+      <c r="A32" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="D32" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="E32" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="F32" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="67"/>
+      <c r="G32" s="64"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="64">
+        <v>98</v>
+      </c>
+      <c r="B33" s="61">
         <f>(C27+C28)*0.09</f>
         <v>4500</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="61">
         <f t="shared" ref="C33:F33" si="4">(D27+D28)*0.09</f>
         <v>9000</v>
       </c>
-      <c r="D33" s="64">
+      <c r="D33" s="61">
         <f t="shared" si="4"/>
         <v>11250</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="61">
         <f t="shared" si="4"/>
         <v>12600</v>
       </c>
-      <c r="F33" s="64">
+      <c r="F33" s="61">
         <f t="shared" si="4"/>
         <v>13500</v>
       </c>
-      <c r="G33" s="69"/>
+      <c r="G33" s="66"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="66">
+        <v>99</v>
+      </c>
+      <c r="B34" s="63">
         <f>(C27+C28)*0.11</f>
         <v>5500</v>
       </c>
-      <c r="C34" s="66">
+      <c r="C34" s="63">
         <f t="shared" ref="C34:F34" si="5">(D27+D28)*0.11</f>
         <v>11000</v>
       </c>
-      <c r="D34" s="66">
+      <c r="D34" s="63">
         <f t="shared" si="5"/>
         <v>13750</v>
       </c>
-      <c r="E34" s="66">
+      <c r="E34" s="63">
         <f t="shared" si="5"/>
         <v>15400</v>
       </c>
-      <c r="F34" s="66">
+      <c r="F34" s="63">
         <f t="shared" si="5"/>
         <v>16500</v>
       </c>
-      <c r="G34" s="69"/>
+      <c r="G34" s="66"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="65">
+      <c r="A35" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="62">
         <f>SUM(B33:B34)</f>
         <v>10000</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="62">
         <f>SUM(C33:C34)</f>
         <v>20000</v>
       </c>
-      <c r="D35" s="65">
+      <c r="D35" s="62">
         <f>SUM(D33:D34)</f>
         <v>25000</v>
       </c>
-      <c r="E35" s="65">
+      <c r="E35" s="62">
         <f>SUM(E33:E34)</f>
         <v>28000</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="62">
         <f>SUM(F33:F34)</f>
         <v>30000</v>
       </c>
-      <c r="G35" s="69"/>
+      <c r="G35" s="66"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="E43" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="58" t="s">
+      <c r="F43" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="58" t="s">
+      <c r="G43" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="G43" s="58" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="44" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="59" t="s">
-        <v>95</v>
+      <c r="B44" s="58" t="s">
+        <v>94</v>
       </c>
       <c r="C44" s="11">
         <v>0</v>
@@ -3944,112 +4048,112 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B48"/>
-      <c r="C48" s="67"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="14" t="s">
         <v>69</v>
       </c>
       <c r="E48"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="72" t="s">
+      <c r="A49" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="72" t="s">
+      <c r="C49" s="67"/>
+      <c r="D49" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="73">
+      <c r="A50" s="70">
         <v>5</v>
       </c>
       <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="73">
+      <c r="C50" s="67"/>
+      <c r="D50" s="70">
         <v>5</v>
       </c>
-      <c r="E50" s="74">
+      <c r="E50" s="71">
         <f>'[2]CapEx and Funding'!F14*0</f>
         <v>0</v>
       </c>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="73">
+      <c r="A51" s="70">
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="73">
+        <v>101</v>
+      </c>
+      <c r="C51" s="67"/>
+      <c r="D51" s="70">
         <v>10</v>
       </c>
-      <c r="E51" s="74">
+      <c r="E51" s="71">
         <f>'[2]CapEx and Funding'!F14*5/D51*1000000</f>
         <v>80420000</v>
       </c>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="67"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
@@ -4058,46 +4162,46 @@
       <c r="B56"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="72" t="s">
+      <c r="A57" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="69" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="75">
+      <c r="A58" s="72">
         <f>'Capex and Funding'!F14</f>
         <v>160.84</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="75">
+      <c r="A59" s="72">
         <f>'Capex and Funding'!N3</f>
         <v>100.84</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="75">
+      <c r="A60" s="72">
         <f>A58-A59</f>
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" t="s">
         <v>107</v>
-      </c>
-      <c r="B61" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4129,38 +4233,38 @@
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="53" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="53" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4208,19 +4312,19 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="42">
         <v>38</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="42">
         <v>2</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="42">
         <v>0</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <v>0</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="43">
         <v>40</v>
       </c>
       <c r="G3" s="5"/>
@@ -4228,26 +4332,26 @@
       <c r="I3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="49">
         <f>B$14*$O$3</f>
         <v>76.927804028848541</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="49">
         <f>C$14*$O$3</f>
         <v>23.912195971151455</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="49">
         <f>D$14*$O$3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="50">
+      <c r="M3" s="49">
         <f>E$14*$O$3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="50">
+      <c r="N3" s="49">
         <v>100.84</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="48">
         <f>N3/(N3+N4)</f>
         <v>0.62695846804277544</v>
       </c>
@@ -4256,19 +4360,19 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>10</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="44">
         <v>0</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>0</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>0</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>10</v>
       </c>
       <c r="G4" s="5"/>
@@ -4276,26 +4380,26 @@
       <c r="I4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="50">
         <f>B$14*$O$4</f>
         <v>45.772195971151454</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="50">
         <f>C$14*$O$4</f>
         <v>14.227804028848546</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="50">
         <f>D$14*$O$4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="50">
         <f>E$14*$O$4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="50">
         <v>60</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="48">
         <f>N4/(N3+N4)</f>
         <v>0.37304153195722456</v>
       </c>
@@ -4304,19 +4408,19 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <v>25</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="42">
         <v>15</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="42">
         <v>0</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="42">
         <v>0</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="43">
         <v>40</v>
       </c>
       <c r="G5" s="5"/>
@@ -4324,27 +4428,27 @@
       <c r="I5" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="51">
         <f>SUM(J3:J4)</f>
         <v>122.69999999999999</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="51">
         <f t="shared" ref="K5:O5" si="0">SUM(K3:K4)</f>
         <v>38.14</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L5" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="52">
+      <c r="N5" s="51">
         <f t="shared" si="0"/>
         <v>160.84</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="52">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4353,19 +4457,19 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>10</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>10</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>0</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>0</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>20</v>
       </c>
       <c r="G6" s="5"/>
@@ -4375,19 +4479,19 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="42">
         <v>12</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="42">
         <v>3</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="42">
         <v>0</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="42">
         <v>0</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="43">
         <v>15</v>
       </c>
       <c r="G7" s="5"/>
@@ -4397,19 +4501,19 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>10</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>2</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>0</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>0</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>12</v>
       </c>
       <c r="G8" s="5"/>
@@ -4419,19 +4523,19 @@
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="42">
         <v>3</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="42">
         <v>3</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="42">
         <v>0</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="42">
         <v>0</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="43">
         <v>6</v>
       </c>
       <c r="G9" s="5"/>
@@ -4441,19 +4545,19 @@
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <v>3</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <v>0</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>0</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>0</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>3</v>
       </c>
       <c r="G10" s="5"/>
@@ -4463,19 +4567,19 @@
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>0.7</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="42">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="42">
         <v>0</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="42">
         <v>0</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="43">
         <v>0.84</v>
       </c>
       <c r="G11" s="5"/>
@@ -4485,19 +4589,19 @@
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="46">
         <v>111.7</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="46">
         <v>35.14</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <v>0</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>0</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="47">
         <v>146.84</v>
       </c>
       <c r="G12" s="5"/>
@@ -4507,19 +4611,19 @@
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="42">
         <v>11</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="42">
         <v>3</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="42">
         <v>0</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="42">
         <v>0</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="43">
         <v>14</v>
       </c>
       <c r="G13" s="5"/>
@@ -4529,19 +4633,19 @@
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="46">
         <v>122.7</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="46">
         <v>38.14</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>0</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>0</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="47">
         <v>160.84</v>
       </c>
       <c r="G14" s="5"/>
@@ -4573,16 +4677,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S114"/>
+  <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.83203125" customWidth="1"/>
-    <col min="3" max="9" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="13" customWidth="1"/>
     <col min="11" max="11" width="48.83203125" customWidth="1"/>
     <col min="13" max="13" width="17.1640625" customWidth="1"/>
     <col min="14" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -4600,37 +4705,85 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
+      <c r="K1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J2" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="83">
+        <v>10</v>
+      </c>
+      <c r="M2" s="85">
+        <v>10</v>
+      </c>
+      <c r="N2" s="86">
+        <v>7.5</v>
+      </c>
+      <c r="O2" s="86">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="J3" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="84">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M3" s="87">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N3" s="87">
+        <v>0.03</v>
+      </c>
+      <c r="O3" s="87">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="24"/>
       <c r="C4" s="17" t="s">
         <v>27</v>
       </c>
+      <c r="J4" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="11">
+        <v>5</v>
+      </c>
+      <c r="M4" s="25">
+        <v>5</v>
+      </c>
+      <c r="N4" s="25">
+        <v>10</v>
+      </c>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="59">
         <f>I19</f>
-        <v>1665217.6936692854</v>
+        <v>163500.13715252854</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="59">
         <f>I24</f>
-        <v>158170.20000000001</v>
+        <v>158344.8598130841</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <v>0</v>
       </c>
       <c r="N6" s="16">
@@ -4658,36 +4811,36 @@
       <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="89">
         <f>C5-C6</f>
-        <v>1507047.4936692854</v>
-      </c>
-      <c r="K7" s="24" t="s">
+        <v>5155.2773394444375</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="28">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="N7" s="29">
-        <f>($M$7-0.07)^N6</f>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="O7" s="29">
-        <f>($M$7-0.07)^O6</f>
-        <v>0.86489999999999989</v>
-      </c>
-      <c r="P7" s="29">
-        <f t="shared" ref="P7:R7" si="1">($M$7-0.07)^P6</f>
-        <v>0.80435699999999988</v>
-      </c>
-      <c r="Q7" s="29">
+      <c r="N7" s="28">
+        <f>(1/(1+$K$3))^N6</f>
+        <v>0.93457943925233644</v>
+      </c>
+      <c r="O7" s="28">
+        <f t="shared" ref="O7:R7" si="1">(1/(1+$K$3))^O6</f>
+        <v>0.87343872827321167</v>
+      </c>
+      <c r="P7" s="28">
         <f t="shared" si="1"/>
-        <v>0.74805200999999977</v>
-      </c>
-      <c r="R7" s="29">
+        <v>0.81629787689085198</v>
+      </c>
+      <c r="Q7" s="28">
         <f t="shared" si="1"/>
-        <v>0.69568836929999978</v>
+        <v>0.76289521204752531</v>
+      </c>
+      <c r="R7" s="28">
+        <f t="shared" si="1"/>
+        <v>0.71298617948366849</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -4695,30 +4848,30 @@
         <v>31</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="62">
+      <c r="C8" s="60">
         <f>C5/C6</f>
-        <v>10.528011557608735</v>
+        <v>1.0325572762231114</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="88">
         <f>C7/S22</f>
-        <v>14.944937462011953</v>
+        <v>5.1123337360615209E-2</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="14" t="s">
@@ -4729,506 +4882,501 @@
       <c r="A13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="R13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="S13" s="22" t="s">
+      <c r="S13" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="27">
-        <f>'Economic Data and Calculations'!$B$15*M7/1000</f>
+      <c r="C14" s="73">
+        <f>M14</f>
         <v>26043.200000000001</v>
       </c>
-      <c r="D14" s="27">
-        <f>'Economic Data and Calculations'!$B$15*N7/1000</f>
-        <v>24220.175999999999</v>
-      </c>
-      <c r="E14" s="27">
-        <f>'Economic Data and Calculations'!$B$15*O7/1000</f>
-        <v>22524.763679999996</v>
-      </c>
-      <c r="F14" s="27">
-        <f>'Economic Data and Calculations'!$B$15*P7/1000</f>
-        <v>20948.030222399997</v>
-      </c>
-      <c r="G14" s="27">
-        <f>'Economic Data and Calculations'!$B$15*Q7/1000</f>
-        <v>19481.668106831992</v>
-      </c>
-      <c r="H14" s="27">
-        <f>'Economic Data and Calculations'!$B$15*R7/1000</f>
-        <v>18117.951339353756</v>
-      </c>
-      <c r="I14" s="27">
+      <c r="D14" s="73">
+        <f t="shared" ref="D14:H14" si="2">N14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="75">
         <f>SUM(C14:H14)</f>
-        <v>131335.78934858573</v>
+        <v>26043.200000000001</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="16">
-        <f>'Economic Data and Calculations'!$B$15</f>
-        <v>26043200</v>
-      </c>
-      <c r="N14" s="16">
-        <f>'Economic Data and Calculations'!$B$15</f>
-        <v>26043200</v>
-      </c>
-      <c r="O14" s="16">
-        <f>'Economic Data and Calculations'!$B$15</f>
-        <v>26043200</v>
-      </c>
-      <c r="P14" s="16">
-        <f>'Economic Data and Calculations'!$B$15</f>
-        <v>26043200</v>
-      </c>
-      <c r="Q14" s="16">
-        <f>'Economic Data and Calculations'!$B$15</f>
-        <v>26043200</v>
-      </c>
-      <c r="R14" s="16">
-        <f>'Economic Data and Calculations'!$B$15</f>
-        <v>26043200</v>
-      </c>
-      <c r="S14" s="16">
+      <c r="M14" s="74">
+        <f>IF(K2=M2,'Economic Data and Calculations'!B15, IF(K2=N2, 'Economic Data and Calculations'!B16, 'Economic Data and Calculations'!B17))/1000</f>
+        <v>26043.200000000001</v>
+      </c>
+      <c r="N14" s="74">
+        <v>0</v>
+      </c>
+      <c r="O14" s="74">
+        <v>0</v>
+      </c>
+      <c r="P14" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="74">
+        <v>0</v>
+      </c>
+      <c r="R14" s="74">
+        <v>0</v>
+      </c>
+      <c r="S14" s="74">
         <f>SUM(M14:R14)</f>
-        <v>156259200</v>
+        <v>26043.200000000001</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="73">
         <v>0</v>
       </c>
-      <c r="D15" s="27">
-        <f>'Economic Data and Calculations'!C$30*1.09*N$7</f>
-        <v>141918</v>
-      </c>
-      <c r="E15" s="27">
-        <f>'Economic Data and Calculations'!D30*1.09*O7</f>
-        <v>263967.48</v>
-      </c>
-      <c r="F15" s="27">
-        <f>'Economic Data and Calculations'!E30*1.09*P7</f>
-        <v>306862.19549999997</v>
-      </c>
-      <c r="G15" s="27">
-        <f>'Economic Data and Calculations'!F30*1.09*Q7</f>
-        <v>319627.66283279995</v>
-      </c>
-      <c r="H15" s="27">
-        <f>'Economic Data and Calculations'!G30*1.09*R7</f>
-        <v>318486.13546553993</v>
-      </c>
-      <c r="I15" s="27">
-        <f t="shared" ref="I15:I18" si="2">SUM(C15:H15)</f>
-        <v>1350861.4737983397</v>
+      <c r="D15" s="73">
+        <f>N15*N$7</f>
+        <v>5140.1869158878508</v>
+      </c>
+      <c r="E15" s="73">
+        <f t="shared" ref="E15:H17" si="3">O15*O$7</f>
+        <v>9607.8260110053288</v>
+      </c>
+      <c r="F15" s="73">
+        <f t="shared" si="3"/>
+        <v>11224.095807249214</v>
+      </c>
+      <c r="G15" s="73">
+        <f t="shared" si="3"/>
+        <v>11748.586265531891</v>
+      </c>
+      <c r="H15" s="73">
+        <f t="shared" si="3"/>
+        <v>11764.27196148053</v>
+      </c>
+      <c r="I15" s="75">
+        <f t="shared" ref="I15:I18" si="4">SUM(C15:H15)</f>
+        <v>49484.966961154816</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="74">
         <v>0</v>
       </c>
-      <c r="N15" s="16">
-        <f>'Economic Data and Calculations'!C$30*1.09</f>
-        <v>152600</v>
-      </c>
-      <c r="O15" s="16">
-        <f>'Economic Data and Calculations'!D$30*1.09</f>
-        <v>305200</v>
-      </c>
-      <c r="P15" s="16">
-        <f>'Economic Data and Calculations'!E$30*1.09</f>
-        <v>381500</v>
-      </c>
-      <c r="Q15" s="16">
-        <f>'Economic Data and Calculations'!F$30*1.09</f>
-        <v>427280.00000000006</v>
-      </c>
-      <c r="R15" s="16">
-        <f>'Economic Data and Calculations'!G$30*1.09</f>
-        <v>457800.00000000006</v>
-      </c>
-      <c r="S15" s="16">
-        <f t="shared" ref="S15:S18" si="3">SUM(M15:R15)</f>
-        <v>1724380</v>
+      <c r="N15" s="74">
+        <f>'Economic Data and Calculations'!B34</f>
+        <v>5500</v>
+      </c>
+      <c r="O15" s="74">
+        <f>'Economic Data and Calculations'!C34</f>
+        <v>11000</v>
+      </c>
+      <c r="P15" s="74">
+        <f>'Economic Data and Calculations'!D34</f>
+        <v>13750</v>
+      </c>
+      <c r="Q15" s="74">
+        <f>'Economic Data and Calculations'!E34</f>
+        <v>15400</v>
+      </c>
+      <c r="R15" s="74">
+        <f>'Economic Data and Calculations'!F34</f>
+        <v>16500</v>
+      </c>
+      <c r="S15" s="74">
+        <f t="shared" ref="S15:S18" si="5">SUM(M15:R15)</f>
+        <v>62150</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="73">
         <v>0</v>
       </c>
-      <c r="D16" s="27">
-        <f>'Economic Data and Calculations'!C$30*0.11*N$7</f>
-        <v>14321.999999999998</v>
-      </c>
-      <c r="E16" s="27">
-        <f>'Economic Data and Calculations'!D$30*0.11*O$7</f>
-        <v>26638.92</v>
-      </c>
-      <c r="F16" s="27">
-        <f>'Economic Data and Calculations'!E$30*0.11*P$7</f>
-        <v>30967.744499999997</v>
-      </c>
-      <c r="G16" s="27">
-        <f>'Economic Data and Calculations'!F$30*0.11*Q$7</f>
-        <v>32256.002671199989</v>
-      </c>
-      <c r="H16" s="27">
-        <f>'Economic Data and Calculations'!G$30*0.11*R$7</f>
-        <v>32140.802661659989</v>
-      </c>
-      <c r="I16" s="27">
-        <f t="shared" si="2"/>
-        <v>136325.46983285996</v>
+      <c r="D16" s="73">
+        <f t="shared" ref="D16:D17" si="6">N16*N$7</f>
+        <v>4205.6074766355141</v>
+      </c>
+      <c r="E16" s="73">
+        <f t="shared" si="3"/>
+        <v>7860.9485544589052</v>
+      </c>
+      <c r="F16" s="73">
+        <f t="shared" si="3"/>
+        <v>9183.3511150220857</v>
+      </c>
+      <c r="G16" s="73">
+        <f t="shared" si="3"/>
+        <v>9612.4796717988193</v>
+      </c>
+      <c r="H16" s="73">
+        <f t="shared" si="3"/>
+        <v>9625.3134230295254</v>
+      </c>
+      <c r="I16" s="75">
+        <f t="shared" si="4"/>
+        <v>40487.700240944854</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="74">
         <v>0</v>
       </c>
-      <c r="N16" s="16">
-        <f>'Economic Data and Calculations'!C$30*0.11</f>
-        <v>15400</v>
-      </c>
-      <c r="O16" s="16">
-        <f>'Economic Data and Calculations'!D$30*0.11</f>
-        <v>30800</v>
-      </c>
-      <c r="P16" s="16">
-        <f>'Economic Data and Calculations'!E$30*0.11</f>
-        <v>38500</v>
-      </c>
-      <c r="Q16" s="16">
-        <f>'Economic Data and Calculations'!F$30*0.11</f>
-        <v>43120</v>
-      </c>
-      <c r="R16" s="16">
-        <f>'Economic Data and Calculations'!G$30*0.11</f>
-        <v>46200</v>
-      </c>
-      <c r="S16" s="16">
+      <c r="N16" s="74">
+        <f>'Economic Data and Calculations'!B$33</f>
+        <v>4500</v>
+      </c>
+      <c r="O16" s="74">
+        <f>'Economic Data and Calculations'!C$33</f>
+        <v>9000</v>
+      </c>
+      <c r="P16" s="74">
+        <f>'Economic Data and Calculations'!D$33</f>
+        <v>11250</v>
+      </c>
+      <c r="Q16" s="74">
+        <f>'Economic Data and Calculations'!E$33</f>
+        <v>12600</v>
+      </c>
+      <c r="R16" s="74">
+        <f>'Economic Data and Calculations'!F$33</f>
+        <v>13500</v>
+      </c>
+      <c r="S16" s="74">
+        <f t="shared" si="5"/>
+        <v>50850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="73">
+        <v>0</v>
+      </c>
+      <c r="D17" s="73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="73">
         <f t="shared" si="3"/>
-        <v>174020</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="27">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27">
-        <f>'Economic Data and Calculations'!C44*'Cost-Benefit Analysis'!N7</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="27">
-        <f>'Economic Data and Calculations'!D44*'Cost-Benefit Analysis'!O7</f>
-        <v>12973.499999999998</v>
-      </c>
-      <c r="F17" s="27">
-        <f>'Economic Data and Calculations'!E44*'Cost-Benefit Analysis'!P7</f>
-        <v>12065.354999999998</v>
-      </c>
-      <c r="G17" s="27">
-        <f>'Economic Data and Calculations'!F44*'Cost-Benefit Analysis'!Q7</f>
-        <v>11220.780149999997</v>
-      </c>
-      <c r="H17" s="27">
-        <f>'Economic Data and Calculations'!G44*'Cost-Benefit Analysis'!R7</f>
-        <v>10435.325539499996</v>
-      </c>
-      <c r="I17" s="27">
-        <f t="shared" si="2"/>
-        <v>46694.960689499989</v>
+        <v>13101.580924098174</v>
+      </c>
+      <c r="F17" s="73">
+        <f t="shared" si="3"/>
+        <v>12244.468153362779</v>
+      </c>
+      <c r="G17" s="73">
+        <f t="shared" si="3"/>
+        <v>11443.428180712879</v>
+      </c>
+      <c r="H17" s="73">
+        <f t="shared" si="3"/>
+        <v>10694.792692255027</v>
+      </c>
+      <c r="I17" s="75">
+        <f t="shared" si="4"/>
+        <v>47484.269950428861</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="74">
         <v>0</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="74">
         <v>0</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="74">
         <f>'Economic Data and Calculations'!D44</f>
         <v>15000</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="74">
         <f>'Economic Data and Calculations'!E44</f>
         <v>15000</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="74">
         <f>'Economic Data and Calculations'!F44</f>
         <v>15000</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R17" s="74">
         <f>'Economic Data and Calculations'!G44</f>
         <v>15000</v>
       </c>
-      <c r="S17" s="16">
-        <f t="shared" si="3"/>
+      <c r="S17" s="74">
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="27">
-        <f>'Economic Data and Calculations'!B53*'Cost-Benefit Analysis'!M7</f>
+      <c r="C18" s="73">
+        <f>M18*M7</f>
         <v>0</v>
       </c>
-      <c r="D18" s="27">
-        <f>'Economic Data and Calculations'!C53*'Cost-Benefit Analysis'!N7</f>
+      <c r="D18" s="73">
+        <f t="shared" ref="D18:H18" si="7">N18*N7</f>
         <v>0</v>
       </c>
-      <c r="E18" s="27">
-        <f>'Economic Data and Calculations'!D53*'Cost-Benefit Analysis'!O7</f>
+      <c r="E18" s="73">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F18" s="27">
-        <f>'Economic Data and Calculations'!E53*'Cost-Benefit Analysis'!P7</f>
+      <c r="F18" s="73">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G18" s="27">
-        <f>'Economic Data and Calculations'!F53*'Cost-Benefit Analysis'!Q7</f>
+      <c r="G18" s="73">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H18" s="27">
-        <f>'Economic Data and Calculations'!G53*'Cost-Benefit Analysis'!R7</f>
+      <c r="H18" s="73">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I18" s="27">
-        <f t="shared" si="2"/>
+      <c r="I18" s="75">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="74">
         <f>'Economic Data and Calculations'!B53</f>
         <v>0</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="74">
         <f>'Economic Data and Calculations'!C53</f>
         <v>0</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="74">
         <f>'Economic Data and Calculations'!D53</f>
         <v>0</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="74">
         <f>'Economic Data and Calculations'!E53</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="74">
         <f>'Economic Data and Calculations'!F53</f>
         <v>0</v>
       </c>
-      <c r="R18" s="16">
-        <f>'Economic Data and Calculations'!G53</f>
+      <c r="R18" s="74">
+        <f>IF(K4=M4, 'Economic Data and Calculations'!G53,'Economic Data and Calculations'!E51)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="16">
-        <f t="shared" si="3"/>
+      <c r="S18" s="74">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <f>SUM(C14:C18)</f>
         <v>26043.200000000001</v>
       </c>
-      <c r="D19" s="23">
-        <f t="shared" ref="D19:I19" si="4">SUM(D14:D18)</f>
-        <v>180460.17600000001</v>
-      </c>
-      <c r="E19" s="23">
-        <f t="shared" si="4"/>
-        <v>326104.66367999994</v>
-      </c>
-      <c r="F19" s="23">
-        <f t="shared" si="4"/>
-        <v>370843.3252223999</v>
-      </c>
-      <c r="G19" s="23">
-        <f t="shared" si="4"/>
-        <v>382586.11376083194</v>
-      </c>
-      <c r="H19" s="23">
-        <f t="shared" si="4"/>
-        <v>379180.21500605368</v>
-      </c>
-      <c r="I19" s="23">
-        <f t="shared" si="4"/>
-        <v>1665217.6936692854</v>
-      </c>
-      <c r="K19" s="23" t="s">
+      <c r="D19" s="22">
+        <f t="shared" ref="D19:I19" si="8">SUM(D14:D18)</f>
+        <v>9345.7943925233649</v>
+      </c>
+      <c r="E19" s="22">
+        <f t="shared" si="8"/>
+        <v>30570.355489562411</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="8"/>
+        <v>32651.915075634082</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="8"/>
+        <v>32804.494118043585</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" si="8"/>
+        <v>32084.378076765082</v>
+      </c>
+      <c r="I19" s="22">
+        <f t="shared" si="8"/>
+        <v>163500.13715252854</v>
+      </c>
+      <c r="K19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="22">
         <f>SUM(M14:M18)</f>
-        <v>26043200</v>
-      </c>
-      <c r="N19" s="23">
-        <f t="shared" ref="N19:Q19" si="5">SUM(N14:N18)</f>
-        <v>26211200</v>
-      </c>
-      <c r="O19" s="23">
-        <f t="shared" si="5"/>
-        <v>26394200</v>
-      </c>
-      <c r="P19" s="23">
-        <f t="shared" si="5"/>
-        <v>26478200</v>
-      </c>
-      <c r="Q19" s="23">
-        <f t="shared" si="5"/>
-        <v>26528600</v>
-      </c>
-      <c r="R19" s="23">
-        <f t="shared" ref="R19" si="6">SUM(R14:R18)</f>
-        <v>26562200</v>
-      </c>
-      <c r="S19" s="23">
-        <f t="shared" ref="S19" si="7">SUM(S14:S18)</f>
-        <v>158217600</v>
+        <v>26043.200000000001</v>
+      </c>
+      <c r="N19" s="22">
+        <f t="shared" ref="N19:Q19" si="9">SUM(N14:N18)</f>
+        <v>10000</v>
+      </c>
+      <c r="O19" s="22">
+        <f t="shared" si="9"/>
+        <v>35000</v>
+      </c>
+      <c r="P19" s="22">
+        <f t="shared" si="9"/>
+        <v>40000</v>
+      </c>
+      <c r="Q19" s="22">
+        <f t="shared" si="9"/>
+        <v>43000</v>
+      </c>
+      <c r="R19" s="22">
+        <f t="shared" ref="R19" si="10">SUM(R14:R18)</f>
+        <v>45000</v>
+      </c>
+      <c r="S19" s="22">
+        <f t="shared" ref="S19" si="11">SUM(S14:S18)</f>
+        <v>199043.20000000001</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="O21" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="P21" s="21" t="s">
+      <c r="P21" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="Q21" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="R21" s="21" t="s">
+      <c r="R21" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="S21" s="22" t="s">
+      <c r="S21" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <f>76.93*1000*M7</f>
         <v>76930</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="26">
         <f>23.91*1000*N7</f>
-        <v>22236.3</v>
-      </c>
-      <c r="E22" s="27">
+        <v>22345.794392523363</v>
+      </c>
+      <c r="E22" s="26">
         <v>0</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="26">
         <v>0</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="26">
         <v>0</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <v>0</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="26">
         <f>SUM(C22:H22)</f>
-        <v>99166.3</v>
+        <v>99275.794392523356</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>42</v>
@@ -5259,32 +5407,32 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <f>45.77*1000*M7</f>
         <v>45770</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="26">
         <f>14.23*1000*N7</f>
-        <v>13233.9</v>
-      </c>
-      <c r="E23" s="27">
+        <v>13299.065420560748</v>
+      </c>
+      <c r="E23" s="26">
         <v>0</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="26">
         <v>0</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="26">
         <v>0</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="26">
         <v>0</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="26">
         <f>SUM(C23:H23)</f>
-        <v>59003.9</v>
+        <v>59069.06542056075</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>43</v>
@@ -5315,1939 +5463,3123 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="29">
         <f>SUM(C22:C23)</f>
         <v>122700</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="29">
         <f>SUM(D22:D23)</f>
-        <v>35470.199999999997</v>
-      </c>
-      <c r="E24" s="30">
-        <f t="shared" ref="E24:I24" si="8">SUM(E22:E23)</f>
+        <v>35644.859813084113</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" ref="E24:I24" si="12">SUM(E22:E23)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="30">
-        <f t="shared" si="8"/>
+      <c r="F24" s="29">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G24" s="30">
-        <f t="shared" si="8"/>
+      <c r="G24" s="29">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H24" s="30">
-        <f t="shared" si="8"/>
+      <c r="H24" s="29">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I24" s="30">
-        <f t="shared" si="8"/>
-        <v>158170.20000000001</v>
-      </c>
-      <c r="K24" s="30" t="s">
+      <c r="I24" s="29">
+        <f t="shared" si="12"/>
+        <v>158344.8598130841</v>
+      </c>
+      <c r="K24" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="30">
+      <c r="M24" s="29">
         <f>SUM(M22:M23)</f>
         <v>122700</v>
       </c>
-      <c r="N24" s="30">
-        <f t="shared" ref="N24:S24" si="9">SUM(N22:N23)</f>
+      <c r="N24" s="29">
+        <f t="shared" ref="N24:S24" si="13">SUM(N22:N23)</f>
         <v>38140</v>
       </c>
-      <c r="O24" s="30">
-        <f t="shared" si="9"/>
+      <c r="O24" s="29">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P24" s="30">
-        <f t="shared" si="9"/>
+      <c r="P24" s="29">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="30">
-        <f t="shared" si="9"/>
+      <c r="Q24" s="29">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R24" s="30">
-        <f t="shared" si="9"/>
+      <c r="R24" s="29">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S24" s="30">
-        <f t="shared" si="9"/>
+      <c r="S24" s="29">
+        <f t="shared" si="13"/>
         <v>160840</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="31"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
     </row>
     <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A27" s="78"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
     </row>
     <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M28" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N28" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O28" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P28" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R28" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S28" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="A28" s="78"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="80"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="K29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="K30" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="K31" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="K32" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="K33" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="81"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="K34" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N36" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O36" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P36" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q36" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R36" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S36" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="A36" s="78"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="80"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="K37" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="K38" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="K39" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="82"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="77"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="77"/>
     </row>
     <row r="42" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A42" s="78"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="77"/>
     </row>
     <row r="43" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M43" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N43" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O43" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P43" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q43" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R43" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S43" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="A43" s="78"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="79"/>
+      <c r="R43" s="79"/>
+      <c r="S43" s="80"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="K44" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="81"/>
+      <c r="S44" s="81"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="K45" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
+      <c r="S45" s="81"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="K46" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="81"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="K47" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="81"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="K48" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="81"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="K49" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="77"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="77"/>
+      <c r="Q50" s="77"/>
+      <c r="R50" s="77"/>
+      <c r="S50" s="77"/>
     </row>
     <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M51" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N51" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O51" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P51" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q51" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R51" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S51" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="A51" s="78"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="79"/>
+      <c r="P51" s="79"/>
+      <c r="Q51" s="79"/>
+      <c r="R51" s="79"/>
+      <c r="S51" s="80"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="K52" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="81"/>
+      <c r="P52" s="81"/>
+      <c r="Q52" s="81"/>
+      <c r="R52" s="81"/>
+      <c r="S52" s="81"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="K53" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="81"/>
+      <c r="O53" s="81"/>
+      <c r="P53" s="81"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="81"/>
+      <c r="S53" s="81"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="K54" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="82"/>
+      <c r="O54" s="82"/>
+      <c r="P54" s="82"/>
+      <c r="Q54" s="82"/>
+      <c r="R54" s="82"/>
+      <c r="S54" s="82"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="77"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="77"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="77"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="77"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="77"/>
+      <c r="P56" s="77"/>
+      <c r="Q56" s="77"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="77"/>
     </row>
     <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A57" s="78"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="77"/>
+      <c r="N57" s="77"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="77"/>
+      <c r="Q57" s="77"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="77"/>
     </row>
     <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M58" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N58" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O58" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P58" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q58" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R58" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S58" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="A58" s="78"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="78"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="79"/>
+      <c r="P58" s="79"/>
+      <c r="Q58" s="79"/>
+      <c r="R58" s="79"/>
+      <c r="S58" s="80"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="K59" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="81"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="81"/>
+      <c r="P59" s="81"/>
+      <c r="Q59" s="81"/>
+      <c r="R59" s="81"/>
+      <c r="S59" s="81"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="K60" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="77"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="81"/>
+      <c r="S60" s="81"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="K61" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="77"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="81"/>
+      <c r="R61" s="81"/>
+      <c r="S61" s="81"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="K62" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="81"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="81"/>
+      <c r="P62" s="81"/>
+      <c r="Q62" s="81"/>
+      <c r="R62" s="81"/>
+      <c r="S62" s="81"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="K63" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="81"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="81"/>
+      <c r="P63" s="81"/>
+      <c r="Q63" s="81"/>
+      <c r="R63" s="81"/>
+      <c r="S63" s="81"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="K64" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="77"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="82"/>
+      <c r="P64" s="82"/>
+      <c r="Q64" s="82"/>
+      <c r="R64" s="82"/>
+      <c r="S64" s="82"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="77"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="77"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="77"/>
+      <c r="O65" s="77"/>
+      <c r="P65" s="77"/>
+      <c r="Q65" s="77"/>
+      <c r="R65" s="77"/>
+      <c r="S65" s="77"/>
     </row>
     <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I66" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M66" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N66" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O66" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P66" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q66" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R66" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S66" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="A66" s="78"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="79"/>
+      <c r="P66" s="79"/>
+      <c r="Q66" s="79"/>
+      <c r="R66" s="79"/>
+      <c r="S66" s="80"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="K67" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="77"/>
+      <c r="K67" s="81"/>
+      <c r="L67" s="77"/>
+      <c r="M67" s="81"/>
+      <c r="N67" s="81"/>
+      <c r="O67" s="81"/>
+      <c r="P67" s="81"/>
+      <c r="Q67" s="81"/>
+      <c r="R67" s="81"/>
+      <c r="S67" s="81"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="K68" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
+      <c r="A68" s="81"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="81"/>
+      <c r="N68" s="81"/>
+      <c r="O68" s="81"/>
+      <c r="P68" s="81"/>
+      <c r="Q68" s="81"/>
+      <c r="R68" s="81"/>
+      <c r="S68" s="81"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="K69" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="23"/>
-      <c r="S69" s="23"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="82"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="82"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="82"/>
+      <c r="P69" s="82"/>
+      <c r="Q69" s="82"/>
+      <c r="R69" s="82"/>
+      <c r="S69" s="82"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="77"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="77"/>
+      <c r="K70" s="77"/>
+      <c r="L70" s="77"/>
+      <c r="M70" s="77"/>
+      <c r="N70" s="77"/>
+      <c r="O70" s="77"/>
+      <c r="P70" s="77"/>
+      <c r="Q70" s="77"/>
+      <c r="R70" s="77"/>
+      <c r="S70" s="77"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="77"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="77"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="77"/>
+      <c r="N71" s="77"/>
+      <c r="O71" s="77"/>
+      <c r="P71" s="77"/>
+      <c r="Q71" s="77"/>
+      <c r="R71" s="77"/>
+      <c r="S71" s="77"/>
     </row>
     <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A72" s="78"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="77"/>
+      <c r="J72" s="77"/>
+      <c r="K72" s="78"/>
+      <c r="L72" s="77"/>
+      <c r="M72" s="77"/>
+      <c r="N72" s="77"/>
+      <c r="O72" s="77"/>
+      <c r="P72" s="77"/>
+      <c r="Q72" s="77"/>
+      <c r="R72" s="77"/>
+      <c r="S72" s="77"/>
     </row>
     <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H73" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I73" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K73" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M73" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N73" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O73" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P73" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q73" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R73" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S73" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="A73" s="78"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="77"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="77"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79"/>
+      <c r="R73" s="79"/>
+      <c r="S73" s="80"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="K74" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
+      <c r="A74" s="81"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="81"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="77"/>
+      <c r="M74" s="81"/>
+      <c r="N74" s="81"/>
+      <c r="O74" s="81"/>
+      <c r="P74" s="81"/>
+      <c r="Q74" s="81"/>
+      <c r="R74" s="81"/>
+      <c r="S74" s="81"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="K75" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
+      <c r="A75" s="81"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="81"/>
+      <c r="I75" s="81"/>
+      <c r="J75" s="77"/>
+      <c r="K75" s="81"/>
+      <c r="L75" s="77"/>
+      <c r="M75" s="81"/>
+      <c r="N75" s="81"/>
+      <c r="O75" s="81"/>
+      <c r="P75" s="81"/>
+      <c r="Q75" s="81"/>
+      <c r="R75" s="81"/>
+      <c r="S75" s="81"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="K76" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
+      <c r="A76" s="81"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="81"/>
+      <c r="H76" s="81"/>
+      <c r="I76" s="81"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="81"/>
+      <c r="L76" s="77"/>
+      <c r="M76" s="81"/>
+      <c r="N76" s="81"/>
+      <c r="O76" s="81"/>
+      <c r="P76" s="81"/>
+      <c r="Q76" s="81"/>
+      <c r="R76" s="81"/>
+      <c r="S76" s="81"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="K77" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
+      <c r="A77" s="81"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="81"/>
+      <c r="I77" s="81"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="81"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="81"/>
+      <c r="N77" s="81"/>
+      <c r="O77" s="81"/>
+      <c r="P77" s="81"/>
+      <c r="Q77" s="81"/>
+      <c r="R77" s="81"/>
+      <c r="S77" s="81"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="K78" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
+      <c r="A78" s="81"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="81"/>
+      <c r="H78" s="81"/>
+      <c r="I78" s="81"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="81"/>
+      <c r="L78" s="77"/>
+      <c r="M78" s="81"/>
+      <c r="N78" s="81"/>
+      <c r="O78" s="81"/>
+      <c r="P78" s="81"/>
+      <c r="Q78" s="81"/>
+      <c r="R78" s="81"/>
+      <c r="S78" s="81"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="K79" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="23"/>
-      <c r="P79" s="23"/>
-      <c r="Q79" s="23"/>
-      <c r="R79" s="23"/>
-      <c r="S79" s="23"/>
+      <c r="A79" s="82"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="82"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="82"/>
+      <c r="H79" s="82"/>
+      <c r="I79" s="82"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="82"/>
+      <c r="L79" s="77"/>
+      <c r="M79" s="82"/>
+      <c r="N79" s="82"/>
+      <c r="O79" s="82"/>
+      <c r="P79" s="82"/>
+      <c r="Q79" s="82"/>
+      <c r="R79" s="82"/>
+      <c r="S79" s="82"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" s="77"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="77"/>
+      <c r="L80" s="77"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="77"/>
+      <c r="R80" s="77"/>
+      <c r="S80" s="77"/>
     </row>
     <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H81" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I81" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M81" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N81" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O81" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P81" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q81" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R81" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S81" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="A81" s="78"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="80"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="78"/>
+      <c r="L81" s="77"/>
+      <c r="M81" s="79"/>
+      <c r="N81" s="79"/>
+      <c r="O81" s="79"/>
+      <c r="P81" s="79"/>
+      <c r="Q81" s="79"/>
+      <c r="R81" s="79"/>
+      <c r="S81" s="80"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="K82" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16"/>
+      <c r="A82" s="81"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="81"/>
+      <c r="H82" s="81"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="81"/>
+      <c r="L82" s="77"/>
+      <c r="M82" s="81"/>
+      <c r="N82" s="81"/>
+      <c r="O82" s="81"/>
+      <c r="P82" s="81"/>
+      <c r="Q82" s="81"/>
+      <c r="R82" s="81"/>
+      <c r="S82" s="81"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="K83" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
+      <c r="A83" s="81"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="81"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="81"/>
+      <c r="N83" s="81"/>
+      <c r="O83" s="81"/>
+      <c r="P83" s="81"/>
+      <c r="Q83" s="81"/>
+      <c r="R83" s="81"/>
+      <c r="S83" s="81"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="K84" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="M84" s="23"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="23"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="23"/>
-      <c r="S84" s="23"/>
+      <c r="A84" s="82"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="77"/>
+      <c r="M84" s="82"/>
+      <c r="N84" s="82"/>
+      <c r="O84" s="82"/>
+      <c r="P84" s="82"/>
+      <c r="Q84" s="82"/>
+      <c r="R84" s="82"/>
+      <c r="S84" s="82"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" s="77"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="77"/>
+      <c r="M85" s="77"/>
+      <c r="N85" s="77"/>
+      <c r="O85" s="77"/>
+      <c r="P85" s="77"/>
+      <c r="Q85" s="77"/>
+      <c r="R85" s="77"/>
+      <c r="S85" s="77"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" s="77"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="77"/>
+      <c r="J86" s="77"/>
+      <c r="K86" s="77"/>
+      <c r="L86" s="77"/>
+      <c r="M86" s="77"/>
+      <c r="N86" s="77"/>
+      <c r="O86" s="77"/>
+      <c r="P86" s="77"/>
+      <c r="Q86" s="77"/>
+      <c r="R86" s="77"/>
+      <c r="S86" s="77"/>
     </row>
     <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="K87" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A87" s="78"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="78"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="77"/>
+      <c r="N87" s="77"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="77"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="77"/>
+      <c r="S87" s="77"/>
     </row>
     <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F88" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G88" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H88" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I88" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K88" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M88" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N88" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O88" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P88" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q88" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R88" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S88" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="A88" s="78"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="78"/>
+      <c r="L88" s="77"/>
+      <c r="M88" s="79"/>
+      <c r="N88" s="79"/>
+      <c r="O88" s="79"/>
+      <c r="P88" s="79"/>
+      <c r="Q88" s="79"/>
+      <c r="R88" s="79"/>
+      <c r="S88" s="80"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="K89" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16"/>
-      <c r="S89" s="16"/>
+      <c r="A89" s="81"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="81"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="81"/>
+      <c r="I89" s="81"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="81"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="81"/>
+      <c r="N89" s="81"/>
+      <c r="O89" s="81"/>
+      <c r="P89" s="81"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="81"/>
+      <c r="S89" s="81"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="K90" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="16"/>
-      <c r="S90" s="16"/>
+      <c r="A90" s="81"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="81"/>
+      <c r="H90" s="81"/>
+      <c r="I90" s="81"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="81"/>
+      <c r="L90" s="77"/>
+      <c r="M90" s="81"/>
+      <c r="N90" s="81"/>
+      <c r="O90" s="81"/>
+      <c r="P90" s="81"/>
+      <c r="Q90" s="81"/>
+      <c r="R90" s="81"/>
+      <c r="S90" s="81"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="K91" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="16"/>
-      <c r="S91" s="16"/>
+      <c r="A91" s="81"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="81"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="81"/>
+      <c r="H91" s="81"/>
+      <c r="I91" s="81"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="81"/>
+      <c r="L91" s="77"/>
+      <c r="M91" s="81"/>
+      <c r="N91" s="81"/>
+      <c r="O91" s="81"/>
+      <c r="P91" s="81"/>
+      <c r="Q91" s="81"/>
+      <c r="R91" s="81"/>
+      <c r="S91" s="81"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="K92" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="16"/>
-      <c r="S92" s="16"/>
+      <c r="A92" s="81"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="81"/>
+      <c r="H92" s="81"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="81"/>
+      <c r="L92" s="77"/>
+      <c r="M92" s="81"/>
+      <c r="N92" s="81"/>
+      <c r="O92" s="81"/>
+      <c r="P92" s="81"/>
+      <c r="Q92" s="81"/>
+      <c r="R92" s="81"/>
+      <c r="S92" s="81"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A93" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="K93" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M93" s="16"/>
-      <c r="N93" s="16"/>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="16"/>
-      <c r="S93" s="16"/>
+      <c r="A93" s="81"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="81"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="81"/>
+      <c r="H93" s="81"/>
+      <c r="I93" s="81"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="81"/>
+      <c r="L93" s="77"/>
+      <c r="M93" s="81"/>
+      <c r="N93" s="81"/>
+      <c r="O93" s="81"/>
+      <c r="P93" s="81"/>
+      <c r="Q93" s="81"/>
+      <c r="R93" s="81"/>
+      <c r="S93" s="81"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="K94" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="M94" s="23"/>
-      <c r="N94" s="23"/>
-      <c r="O94" s="23"/>
-      <c r="P94" s="23"/>
-      <c r="Q94" s="23"/>
-      <c r="R94" s="23"/>
-      <c r="S94" s="23"/>
+      <c r="A94" s="82"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="82"/>
+      <c r="G94" s="82"/>
+      <c r="H94" s="82"/>
+      <c r="I94" s="82"/>
+      <c r="J94" s="77"/>
+      <c r="K94" s="82"/>
+      <c r="L94" s="77"/>
+      <c r="M94" s="82"/>
+      <c r="N94" s="82"/>
+      <c r="O94" s="82"/>
+      <c r="P94" s="82"/>
+      <c r="Q94" s="82"/>
+      <c r="R94" s="82"/>
+      <c r="S94" s="82"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A95" s="77"/>
+      <c r="B95" s="77"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="77"/>
+      <c r="H95" s="77"/>
+      <c r="I95" s="77"/>
+      <c r="J95" s="77"/>
+      <c r="K95" s="77"/>
+      <c r="L95" s="77"/>
+      <c r="M95" s="77"/>
+      <c r="N95" s="77"/>
+      <c r="O95" s="77"/>
+      <c r="P95" s="77"/>
+      <c r="Q95" s="77"/>
+      <c r="R95" s="77"/>
+      <c r="S95" s="77"/>
     </row>
     <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G96" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H96" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I96" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K96" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M96" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N96" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O96" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P96" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q96" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R96" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S96" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="A96" s="78"/>
+      <c r="B96" s="77"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="79"/>
+      <c r="H96" s="79"/>
+      <c r="I96" s="80"/>
+      <c r="J96" s="77"/>
+      <c r="K96" s="78"/>
+      <c r="L96" s="77"/>
+      <c r="M96" s="79"/>
+      <c r="N96" s="79"/>
+      <c r="O96" s="79"/>
+      <c r="P96" s="79"/>
+      <c r="Q96" s="79"/>
+      <c r="R96" s="79"/>
+      <c r="S96" s="80"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="K97" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
-      <c r="Q97" s="16"/>
-      <c r="R97" s="16"/>
-      <c r="S97" s="16"/>
+      <c r="A97" s="81"/>
+      <c r="B97" s="77"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="81"/>
+      <c r="H97" s="81"/>
+      <c r="I97" s="81"/>
+      <c r="J97" s="77"/>
+      <c r="K97" s="81"/>
+      <c r="L97" s="77"/>
+      <c r="M97" s="81"/>
+      <c r="N97" s="81"/>
+      <c r="O97" s="81"/>
+      <c r="P97" s="81"/>
+      <c r="Q97" s="81"/>
+      <c r="R97" s="81"/>
+      <c r="S97" s="81"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="K98" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="16"/>
-      <c r="S98" s="16"/>
+      <c r="A98" s="81"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="81"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="81"/>
+      <c r="G98" s="81"/>
+      <c r="H98" s="81"/>
+      <c r="I98" s="81"/>
+      <c r="J98" s="77"/>
+      <c r="K98" s="81"/>
+      <c r="L98" s="77"/>
+      <c r="M98" s="81"/>
+      <c r="N98" s="81"/>
+      <c r="O98" s="81"/>
+      <c r="P98" s="81"/>
+      <c r="Q98" s="81"/>
+      <c r="R98" s="81"/>
+      <c r="S98" s="81"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="K99" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="M99" s="23"/>
-      <c r="N99" s="23"/>
-      <c r="O99" s="23"/>
-      <c r="P99" s="23"/>
-      <c r="Q99" s="23"/>
-      <c r="R99" s="23"/>
-      <c r="S99" s="23"/>
+      <c r="A99" s="82"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="82"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="82"/>
+      <c r="H99" s="82"/>
+      <c r="I99" s="82"/>
+      <c r="J99" s="77"/>
+      <c r="K99" s="82"/>
+      <c r="L99" s="77"/>
+      <c r="M99" s="82"/>
+      <c r="N99" s="82"/>
+      <c r="O99" s="82"/>
+      <c r="P99" s="82"/>
+      <c r="Q99" s="82"/>
+      <c r="R99" s="82"/>
+      <c r="S99" s="82"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A100" s="77"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="77"/>
+      <c r="M100" s="77"/>
+      <c r="N100" s="77"/>
+      <c r="O100" s="77"/>
+      <c r="P100" s="77"/>
+      <c r="Q100" s="77"/>
+      <c r="R100" s="77"/>
+      <c r="S100" s="77"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A101" s="77"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="77"/>
+      <c r="M101" s="77"/>
+      <c r="N101" s="77"/>
+      <c r="O101" s="77"/>
+      <c r="P101" s="77"/>
+      <c r="Q101" s="77"/>
+      <c r="R101" s="77"/>
+      <c r="S101" s="77"/>
     </row>
     <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A102" s="78"/>
+      <c r="B102" s="77"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="78"/>
+      <c r="L102" s="77"/>
+      <c r="M102" s="77"/>
+      <c r="N102" s="77"/>
+      <c r="O102" s="77"/>
+      <c r="P102" s="77"/>
+      <c r="Q102" s="77"/>
+      <c r="R102" s="77"/>
+      <c r="S102" s="77"/>
     </row>
     <row r="103" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F103" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G103" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H103" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I103" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K103" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M103" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N103" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O103" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P103" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q103" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R103" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S103" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="A103" s="78"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
+      <c r="H103" s="79"/>
+      <c r="I103" s="80"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="78"/>
+      <c r="L103" s="77"/>
+      <c r="M103" s="79"/>
+      <c r="N103" s="79"/>
+      <c r="O103" s="79"/>
+      <c r="P103" s="79"/>
+      <c r="Q103" s="79"/>
+      <c r="R103" s="79"/>
+      <c r="S103" s="80"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="K104" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="16"/>
-      <c r="R104" s="16"/>
-      <c r="S104" s="16"/>
+      <c r="A104" s="81"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="81"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="81"/>
+      <c r="H104" s="81"/>
+      <c r="I104" s="81"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="81"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="81"/>
+      <c r="N104" s="81"/>
+      <c r="O104" s="81"/>
+      <c r="P104" s="81"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="K105" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M105" s="16"/>
-      <c r="N105" s="16"/>
-      <c r="O105" s="16"/>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="16"/>
-      <c r="R105" s="16"/>
-      <c r="S105" s="16"/>
+      <c r="A105" s="81"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="81"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="81"/>
+      <c r="H105" s="81"/>
+      <c r="I105" s="81"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="81"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="81"/>
+      <c r="N105" s="81"/>
+      <c r="O105" s="81"/>
+      <c r="P105" s="81"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A106" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="K106" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
-      <c r="O106" s="16"/>
-      <c r="P106" s="16"/>
-      <c r="Q106" s="16"/>
-      <c r="R106" s="16"/>
-      <c r="S106" s="16"/>
+      <c r="A106" s="81"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="81"/>
+      <c r="I106" s="81"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="81"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="81"/>
+      <c r="N106" s="81"/>
+      <c r="O106" s="81"/>
+      <c r="P106" s="81"/>
+      <c r="Q106" s="81"/>
+      <c r="R106" s="81"/>
+      <c r="S106" s="81"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A107" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="K107" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M107" s="16"/>
-      <c r="N107" s="16"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
-      <c r="R107" s="16"/>
-      <c r="S107" s="16"/>
+      <c r="A107" s="81"/>
+      <c r="B107" s="77"/>
+      <c r="C107" s="81"/>
+      <c r="D107" s="81"/>
+      <c r="E107" s="81"/>
+      <c r="F107" s="81"/>
+      <c r="G107" s="81"/>
+      <c r="H107" s="81"/>
+      <c r="I107" s="81"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="81"/>
+      <c r="L107" s="77"/>
+      <c r="M107" s="81"/>
+      <c r="N107" s="81"/>
+      <c r="O107" s="81"/>
+      <c r="P107" s="81"/>
+      <c r="Q107" s="81"/>
+      <c r="R107" s="81"/>
+      <c r="S107" s="81"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A108" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="K108" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M108" s="16"/>
-      <c r="N108" s="16"/>
-      <c r="O108" s="16"/>
-      <c r="P108" s="16"/>
-      <c r="Q108" s="16"/>
-      <c r="R108" s="16"/>
-      <c r="S108" s="16"/>
+      <c r="A108" s="81"/>
+      <c r="B108" s="77"/>
+      <c r="C108" s="81"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="81"/>
+      <c r="F108" s="81"/>
+      <c r="G108" s="81"/>
+      <c r="H108" s="81"/>
+      <c r="I108" s="81"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="81"/>
+      <c r="L108" s="77"/>
+      <c r="M108" s="81"/>
+      <c r="N108" s="81"/>
+      <c r="O108" s="81"/>
+      <c r="P108" s="81"/>
+      <c r="Q108" s="81"/>
+      <c r="R108" s="81"/>
+      <c r="S108" s="81"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A109" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="23"/>
-      <c r="K109" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="M109" s="23"/>
-      <c r="N109" s="23"/>
-      <c r="O109" s="23"/>
-      <c r="P109" s="23"/>
-      <c r="Q109" s="23"/>
-      <c r="R109" s="23"/>
-      <c r="S109" s="23"/>
+      <c r="A109" s="82"/>
+      <c r="B109" s="77"/>
+      <c r="C109" s="82"/>
+      <c r="D109" s="82"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="82"/>
+      <c r="H109" s="82"/>
+      <c r="I109" s="82"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="82"/>
+      <c r="L109" s="77"/>
+      <c r="M109" s="82"/>
+      <c r="N109" s="82"/>
+      <c r="O109" s="82"/>
+      <c r="P109" s="82"/>
+      <c r="Q109" s="82"/>
+      <c r="R109" s="82"/>
+      <c r="S109" s="82"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A110" s="77"/>
+      <c r="B110" s="77"/>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
+      <c r="M110" s="77"/>
+      <c r="N110" s="77"/>
+      <c r="O110" s="77"/>
+      <c r="P110" s="77"/>
+      <c r="Q110" s="77"/>
+      <c r="R110" s="77"/>
+      <c r="S110" s="77"/>
     </row>
     <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F111" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G111" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H111" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I111" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K111" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M111" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N111" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O111" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P111" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q111" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R111" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S111" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="A111" s="78"/>
+      <c r="B111" s="77"/>
+      <c r="C111" s="79"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="79"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="79"/>
+      <c r="H111" s="79"/>
+      <c r="I111" s="80"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="78"/>
+      <c r="L111" s="77"/>
+      <c r="M111" s="79"/>
+      <c r="N111" s="79"/>
+      <c r="O111" s="79"/>
+      <c r="P111" s="79"/>
+      <c r="Q111" s="79"/>
+      <c r="R111" s="79"/>
+      <c r="S111" s="80"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A112" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="K112" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M112" s="16"/>
-      <c r="N112" s="16"/>
-      <c r="O112" s="16"/>
-      <c r="P112" s="16"/>
-      <c r="Q112" s="16"/>
-      <c r="R112" s="16"/>
-      <c r="S112" s="16"/>
+      <c r="A112" s="81"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="81"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="81"/>
+      <c r="F112" s="81"/>
+      <c r="G112" s="81"/>
+      <c r="H112" s="81"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="81"/>
+      <c r="L112" s="77"/>
+      <c r="M112" s="81"/>
+      <c r="N112" s="81"/>
+      <c r="O112" s="81"/>
+      <c r="P112" s="81"/>
+      <c r="Q112" s="81"/>
+      <c r="R112" s="81"/>
+      <c r="S112" s="81"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A113" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="K113" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M113" s="16"/>
-      <c r="N113" s="16"/>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="16"/>
-      <c r="R113" s="16"/>
-      <c r="S113" s="16"/>
+      <c r="A113" s="81"/>
+      <c r="B113" s="77"/>
+      <c r="C113" s="81"/>
+      <c r="D113" s="81"/>
+      <c r="E113" s="81"/>
+      <c r="F113" s="81"/>
+      <c r="G113" s="81"/>
+      <c r="H113" s="81"/>
+      <c r="I113" s="81"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="81"/>
+      <c r="L113" s="77"/>
+      <c r="M113" s="81"/>
+      <c r="N113" s="81"/>
+      <c r="O113" s="81"/>
+      <c r="P113" s="81"/>
+      <c r="Q113" s="81"/>
+      <c r="R113" s="81"/>
+      <c r="S113" s="81"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A114" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="23"/>
-      <c r="K114" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="M114" s="23"/>
-      <c r="N114" s="23"/>
-      <c r="O114" s="23"/>
-      <c r="P114" s="23"/>
-      <c r="Q114" s="23"/>
-      <c r="R114" s="23"/>
-      <c r="S114" s="23"/>
+      <c r="A114" s="82"/>
+      <c r="B114" s="77"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="82"/>
+      <c r="I114" s="82"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="82"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="82"/>
+      <c r="N114" s="82"/>
+      <c r="O114" s="82"/>
+      <c r="P114" s="82"/>
+      <c r="Q114" s="82"/>
+      <c r="R114" s="82"/>
+      <c r="S114" s="82"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A115" s="77"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="77"/>
+      <c r="I115" s="77"/>
+      <c r="J115" s="77"/>
+      <c r="K115" s="77"/>
+      <c r="L115" s="77"/>
+      <c r="M115" s="77"/>
+      <c r="N115" s="77"/>
+      <c r="O115" s="77"/>
+      <c r="P115" s="77"/>
+      <c r="Q115" s="77"/>
+      <c r="R115" s="77"/>
+      <c r="S115" s="77"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A116" s="77"/>
+      <c r="B116" s="77"/>
+      <c r="C116" s="77"/>
+      <c r="D116" s="77"/>
+      <c r="E116" s="77"/>
+      <c r="F116" s="77"/>
+      <c r="G116" s="77"/>
+      <c r="H116" s="77"/>
+      <c r="I116" s="77"/>
+      <c r="J116" s="77"/>
+      <c r="K116" s="77"/>
+      <c r="L116" s="77"/>
+      <c r="M116" s="77"/>
+      <c r="N116" s="77"/>
+      <c r="O116" s="77"/>
+      <c r="P116" s="77"/>
+      <c r="Q116" s="77"/>
+      <c r="R116" s="77"/>
+      <c r="S116" s="77"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A117" s="77"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="77"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="77"/>
+      <c r="J117" s="77"/>
+      <c r="K117" s="77"/>
+      <c r="L117" s="77"/>
+      <c r="M117" s="77"/>
+      <c r="N117" s="77"/>
+      <c r="O117" s="77"/>
+      <c r="P117" s="77"/>
+      <c r="Q117" s="77"/>
+      <c r="R117" s="77"/>
+      <c r="S117" s="77"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A118" s="77"/>
+      <c r="B118" s="77"/>
+      <c r="C118" s="77"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="77"/>
+      <c r="H118" s="77"/>
+      <c r="I118" s="77"/>
+      <c r="J118" s="77"/>
+      <c r="K118" s="77"/>
+      <c r="L118" s="77"/>
+      <c r="M118" s="77"/>
+      <c r="N118" s="77"/>
+      <c r="O118" s="77"/>
+      <c r="P118" s="77"/>
+      <c r="Q118" s="77"/>
+      <c r="R118" s="77"/>
+      <c r="S118" s="77"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A119" s="77"/>
+      <c r="B119" s="77"/>
+      <c r="C119" s="77"/>
+      <c r="D119" s="77"/>
+      <c r="E119" s="77"/>
+      <c r="F119" s="77"/>
+      <c r="G119" s="77"/>
+      <c r="H119" s="77"/>
+      <c r="I119" s="77"/>
+      <c r="J119" s="77"/>
+      <c r="K119" s="77"/>
+      <c r="L119" s="77"/>
+      <c r="M119" s="77"/>
+      <c r="N119" s="77"/>
+      <c r="O119" s="77"/>
+      <c r="P119" s="77"/>
+      <c r="Q119" s="77"/>
+      <c r="R119" s="77"/>
+      <c r="S119" s="77"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A120" s="77"/>
+      <c r="B120" s="77"/>
+      <c r="C120" s="77"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="77"/>
+      <c r="G120" s="77"/>
+      <c r="H120" s="77"/>
+      <c r="I120" s="77"/>
+      <c r="J120" s="77"/>
+      <c r="K120" s="77"/>
+      <c r="L120" s="77"/>
+      <c r="M120" s="77"/>
+      <c r="N120" s="77"/>
+      <c r="O120" s="77"/>
+      <c r="P120" s="77"/>
+      <c r="Q120" s="77"/>
+      <c r="R120" s="77"/>
+      <c r="S120" s="77"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A121" s="77"/>
+      <c r="B121" s="77"/>
+      <c r="C121" s="77"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="77"/>
+      <c r="G121" s="77"/>
+      <c r="H121" s="77"/>
+      <c r="I121" s="77"/>
+      <c r="J121" s="77"/>
+      <c r="K121" s="77"/>
+      <c r="L121" s="77"/>
+      <c r="M121" s="77"/>
+      <c r="N121" s="77"/>
+      <c r="O121" s="77"/>
+      <c r="P121" s="77"/>
+      <c r="Q121" s="77"/>
+      <c r="R121" s="77"/>
+      <c r="S121" s="77"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A122" s="77"/>
+      <c r="B122" s="77"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="77"/>
+      <c r="G122" s="77"/>
+      <c r="H122" s="77"/>
+      <c r="I122" s="77"/>
+      <c r="J122" s="77"/>
+      <c r="K122" s="77"/>
+      <c r="L122" s="77"/>
+      <c r="M122" s="77"/>
+      <c r="N122" s="77"/>
+      <c r="O122" s="77"/>
+      <c r="P122" s="77"/>
+      <c r="Q122" s="77"/>
+      <c r="R122" s="77"/>
+      <c r="S122" s="77"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A123" s="77"/>
+      <c r="B123" s="77"/>
+      <c r="C123" s="77"/>
+      <c r="D123" s="77"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="77"/>
+      <c r="G123" s="77"/>
+      <c r="H123" s="77"/>
+      <c r="I123" s="77"/>
+      <c r="J123" s="77"/>
+      <c r="K123" s="77"/>
+      <c r="L123" s="77"/>
+      <c r="M123" s="77"/>
+      <c r="N123" s="77"/>
+      <c r="O123" s="77"/>
+      <c r="P123" s="77"/>
+      <c r="Q123" s="77"/>
+      <c r="R123" s="77"/>
+      <c r="S123" s="77"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A124" s="77"/>
+      <c r="B124" s="77"/>
+      <c r="C124" s="77"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="77"/>
+      <c r="F124" s="77"/>
+      <c r="G124" s="77"/>
+      <c r="H124" s="77"/>
+      <c r="I124" s="77"/>
+      <c r="J124" s="77"/>
+      <c r="K124" s="77"/>
+      <c r="L124" s="77"/>
+      <c r="M124" s="77"/>
+      <c r="N124" s="77"/>
+      <c r="O124" s="77"/>
+      <c r="P124" s="77"/>
+      <c r="Q124" s="77"/>
+      <c r="R124" s="77"/>
+      <c r="S124" s="77"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A125" s="77"/>
+      <c r="B125" s="77"/>
+      <c r="C125" s="77"/>
+      <c r="D125" s="77"/>
+      <c r="E125" s="77"/>
+      <c r="F125" s="77"/>
+      <c r="G125" s="77"/>
+      <c r="H125" s="77"/>
+      <c r="I125" s="77"/>
+      <c r="J125" s="77"/>
+      <c r="K125" s="77"/>
+      <c r="L125" s="77"/>
+      <c r="M125" s="77"/>
+      <c r="N125" s="77"/>
+      <c r="O125" s="77"/>
+      <c r="P125" s="77"/>
+      <c r="Q125" s="77"/>
+      <c r="R125" s="77"/>
+      <c r="S125" s="77"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A126" s="77"/>
+      <c r="B126" s="77"/>
+      <c r="C126" s="77"/>
+      <c r="D126" s="77"/>
+      <c r="E126" s="77"/>
+      <c r="F126" s="77"/>
+      <c r="G126" s="77"/>
+      <c r="H126" s="77"/>
+      <c r="I126" s="77"/>
+      <c r="J126" s="77"/>
+      <c r="K126" s="77"/>
+      <c r="L126" s="77"/>
+      <c r="M126" s="77"/>
+      <c r="N126" s="77"/>
+      <c r="O126" s="77"/>
+      <c r="P126" s="77"/>
+      <c r="Q126" s="77"/>
+      <c r="R126" s="77"/>
+      <c r="S126" s="77"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A127" s="77"/>
+      <c r="B127" s="77"/>
+      <c r="C127" s="77"/>
+      <c r="D127" s="77"/>
+      <c r="E127" s="77"/>
+      <c r="F127" s="77"/>
+      <c r="G127" s="77"/>
+      <c r="H127" s="77"/>
+      <c r="I127" s="77"/>
+      <c r="J127" s="77"/>
+      <c r="K127" s="77"/>
+      <c r="L127" s="77"/>
+      <c r="M127" s="77"/>
+      <c r="N127" s="77"/>
+      <c r="O127" s="77"/>
+      <c r="P127" s="77"/>
+      <c r="Q127" s="77"/>
+      <c r="R127" s="77"/>
+      <c r="S127" s="77"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A128" s="77"/>
+      <c r="B128" s="77"/>
+      <c r="C128" s="77"/>
+      <c r="D128" s="77"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="77"/>
+      <c r="G128" s="77"/>
+      <c r="H128" s="77"/>
+      <c r="I128" s="77"/>
+      <c r="J128" s="77"/>
+      <c r="K128" s="77"/>
+      <c r="L128" s="77"/>
+      <c r="M128" s="77"/>
+      <c r="N128" s="77"/>
+      <c r="O128" s="77"/>
+      <c r="P128" s="77"/>
+      <c r="Q128" s="77"/>
+      <c r="R128" s="77"/>
+      <c r="S128" s="77"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A129" s="77"/>
+      <c r="B129" s="77"/>
+      <c r="C129" s="77"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="77"/>
+      <c r="F129" s="77"/>
+      <c r="G129" s="77"/>
+      <c r="H129" s="77"/>
+      <c r="I129" s="77"/>
+      <c r="J129" s="77"/>
+      <c r="K129" s="77"/>
+      <c r="L129" s="77"/>
+      <c r="M129" s="77"/>
+      <c r="N129" s="77"/>
+      <c r="O129" s="77"/>
+      <c r="P129" s="77"/>
+      <c r="Q129" s="77"/>
+      <c r="R129" s="77"/>
+      <c r="S129" s="77"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A130" s="77"/>
+      <c r="B130" s="77"/>
+      <c r="C130" s="77"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="77"/>
+      <c r="G130" s="77"/>
+      <c r="H130" s="77"/>
+      <c r="I130" s="77"/>
+      <c r="J130" s="77"/>
+      <c r="K130" s="77"/>
+      <c r="L130" s="77"/>
+      <c r="M130" s="77"/>
+      <c r="N130" s="77"/>
+      <c r="O130" s="77"/>
+      <c r="P130" s="77"/>
+      <c r="Q130" s="77"/>
+      <c r="R130" s="77"/>
+      <c r="S130" s="77"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A131" s="77"/>
+      <c r="B131" s="77"/>
+      <c r="C131" s="77"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="77"/>
+      <c r="F131" s="77"/>
+      <c r="G131" s="77"/>
+      <c r="H131" s="77"/>
+      <c r="I131" s="77"/>
+      <c r="J131" s="77"/>
+      <c r="K131" s="77"/>
+      <c r="L131" s="77"/>
+      <c r="M131" s="77"/>
+      <c r="N131" s="77"/>
+      <c r="O131" s="77"/>
+      <c r="P131" s="77"/>
+      <c r="Q131" s="77"/>
+      <c r="R131" s="77"/>
+      <c r="S131" s="77"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A132" s="77"/>
+      <c r="B132" s="77"/>
+      <c r="C132" s="77"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="77"/>
+      <c r="F132" s="77"/>
+      <c r="G132" s="77"/>
+      <c r="H132" s="77"/>
+      <c r="I132" s="77"/>
+      <c r="J132" s="77"/>
+      <c r="K132" s="77"/>
+      <c r="L132" s="77"/>
+      <c r="M132" s="77"/>
+      <c r="N132" s="77"/>
+      <c r="O132" s="77"/>
+      <c r="P132" s="77"/>
+      <c r="Q132" s="77"/>
+      <c r="R132" s="77"/>
+      <c r="S132" s="77"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A133" s="77"/>
+      <c r="B133" s="77"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="77"/>
+      <c r="E133" s="77"/>
+      <c r="F133" s="77"/>
+      <c r="G133" s="77"/>
+      <c r="H133" s="77"/>
+      <c r="I133" s="77"/>
+      <c r="J133" s="77"/>
+      <c r="K133" s="77"/>
+      <c r="L133" s="77"/>
+      <c r="M133" s="77"/>
+      <c r="N133" s="77"/>
+      <c r="O133" s="77"/>
+      <c r="P133" s="77"/>
+      <c r="Q133" s="77"/>
+      <c r="R133" s="77"/>
+      <c r="S133" s="77"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A134" s="77"/>
+      <c r="B134" s="77"/>
+      <c r="C134" s="77"/>
+      <c r="D134" s="77"/>
+      <c r="E134" s="77"/>
+      <c r="F134" s="77"/>
+      <c r="G134" s="77"/>
+      <c r="H134" s="77"/>
+      <c r="I134" s="77"/>
+      <c r="J134" s="77"/>
+      <c r="K134" s="77"/>
+      <c r="L134" s="77"/>
+      <c r="M134" s="77"/>
+      <c r="N134" s="77"/>
+      <c r="O134" s="77"/>
+      <c r="P134" s="77"/>
+      <c r="Q134" s="77"/>
+      <c r="R134" s="77"/>
+      <c r="S134" s="77"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A135" s="77"/>
+      <c r="B135" s="77"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="77"/>
+      <c r="G135" s="77"/>
+      <c r="H135" s="77"/>
+      <c r="I135" s="77"/>
+      <c r="J135" s="77"/>
+      <c r="K135" s="77"/>
+      <c r="L135" s="77"/>
+      <c r="M135" s="77"/>
+      <c r="N135" s="77"/>
+      <c r="O135" s="77"/>
+      <c r="P135" s="77"/>
+      <c r="Q135" s="77"/>
+      <c r="R135" s="77"/>
+      <c r="S135" s="77"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A136" s="77"/>
+      <c r="B136" s="77"/>
+      <c r="C136" s="77"/>
+      <c r="D136" s="77"/>
+      <c r="E136" s="77"/>
+      <c r="F136" s="77"/>
+      <c r="G136" s="77"/>
+      <c r="H136" s="77"/>
+      <c r="I136" s="77"/>
+      <c r="J136" s="77"/>
+      <c r="K136" s="77"/>
+      <c r="L136" s="77"/>
+      <c r="M136" s="77"/>
+      <c r="N136" s="77"/>
+      <c r="O136" s="77"/>
+      <c r="P136" s="77"/>
+      <c r="Q136" s="77"/>
+      <c r="R136" s="77"/>
+      <c r="S136" s="77"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A137" s="77"/>
+      <c r="B137" s="77"/>
+      <c r="C137" s="77"/>
+      <c r="D137" s="77"/>
+      <c r="E137" s="77"/>
+      <c r="F137" s="77"/>
+      <c r="G137" s="77"/>
+      <c r="H137" s="77"/>
+      <c r="I137" s="77"/>
+      <c r="J137" s="77"/>
+      <c r="K137" s="77"/>
+      <c r="L137" s="77"/>
+      <c r="M137" s="77"/>
+      <c r="N137" s="77"/>
+      <c r="O137" s="77"/>
+      <c r="P137" s="77"/>
+      <c r="Q137" s="77"/>
+      <c r="R137" s="77"/>
+      <c r="S137" s="77"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A138" s="77"/>
+      <c r="B138" s="77"/>
+      <c r="C138" s="77"/>
+      <c r="D138" s="77"/>
+      <c r="E138" s="77"/>
+      <c r="F138" s="77"/>
+      <c r="G138" s="77"/>
+      <c r="H138" s="77"/>
+      <c r="I138" s="77"/>
+      <c r="J138" s="77"/>
+      <c r="K138" s="77"/>
+      <c r="L138" s="77"/>
+      <c r="M138" s="77"/>
+      <c r="N138" s="77"/>
+      <c r="O138" s="77"/>
+      <c r="P138" s="77"/>
+      <c r="Q138" s="77"/>
+      <c r="R138" s="77"/>
+      <c r="S138" s="77"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A139" s="77"/>
+      <c r="B139" s="77"/>
+      <c r="C139" s="77"/>
+      <c r="D139" s="77"/>
+      <c r="E139" s="77"/>
+      <c r="F139" s="77"/>
+      <c r="G139" s="77"/>
+      <c r="H139" s="77"/>
+      <c r="I139" s="77"/>
+      <c r="J139" s="77"/>
+      <c r="K139" s="77"/>
+      <c r="L139" s="77"/>
+      <c r="M139" s="77"/>
+      <c r="N139" s="77"/>
+      <c r="O139" s="77"/>
+      <c r="P139" s="77"/>
+      <c r="Q139" s="77"/>
+      <c r="R139" s="77"/>
+      <c r="S139" s="77"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A140" s="77"/>
+      <c r="B140" s="77"/>
+      <c r="C140" s="77"/>
+      <c r="D140" s="77"/>
+      <c r="E140" s="77"/>
+      <c r="F140" s="77"/>
+      <c r="G140" s="77"/>
+      <c r="H140" s="77"/>
+      <c r="I140" s="77"/>
+      <c r="J140" s="77"/>
+      <c r="K140" s="77"/>
+      <c r="L140" s="77"/>
+      <c r="M140" s="77"/>
+      <c r="N140" s="77"/>
+      <c r="O140" s="77"/>
+      <c r="P140" s="77"/>
+      <c r="Q140" s="77"/>
+      <c r="R140" s="77"/>
+      <c r="S140" s="77"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A141" s="77"/>
+      <c r="B141" s="77"/>
+      <c r="C141" s="77"/>
+      <c r="D141" s="77"/>
+      <c r="E141" s="77"/>
+      <c r="F141" s="77"/>
+      <c r="G141" s="77"/>
+      <c r="H141" s="77"/>
+      <c r="I141" s="77"/>
+      <c r="J141" s="77"/>
+      <c r="K141" s="77"/>
+      <c r="L141" s="77"/>
+      <c r="M141" s="77"/>
+      <c r="N141" s="77"/>
+      <c r="O141" s="77"/>
+      <c r="P141" s="77"/>
+      <c r="Q141" s="77"/>
+      <c r="R141" s="77"/>
+      <c r="S141" s="77"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A142" s="77"/>
+      <c r="B142" s="77"/>
+      <c r="C142" s="77"/>
+      <c r="D142" s="77"/>
+      <c r="E142" s="77"/>
+      <c r="F142" s="77"/>
+      <c r="G142" s="77"/>
+      <c r="H142" s="77"/>
+      <c r="I142" s="77"/>
+      <c r="J142" s="77"/>
+      <c r="K142" s="77"/>
+      <c r="L142" s="77"/>
+      <c r="M142" s="77"/>
+      <c r="N142" s="77"/>
+      <c r="O142" s="77"/>
+      <c r="P142" s="77"/>
+      <c r="Q142" s="77"/>
+      <c r="R142" s="77"/>
+      <c r="S142" s="77"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A143" s="77"/>
+      <c r="B143" s="77"/>
+      <c r="C143" s="77"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="77"/>
+      <c r="G143" s="77"/>
+      <c r="H143" s="77"/>
+      <c r="I143" s="77"/>
+      <c r="J143" s="77"/>
+      <c r="K143" s="77"/>
+      <c r="L143" s="77"/>
+      <c r="M143" s="77"/>
+      <c r="N143" s="77"/>
+      <c r="O143" s="77"/>
+      <c r="P143" s="77"/>
+      <c r="Q143" s="77"/>
+      <c r="R143" s="77"/>
+      <c r="S143" s="77"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A144" s="77"/>
+      <c r="B144" s="77"/>
+      <c r="C144" s="77"/>
+      <c r="D144" s="77"/>
+      <c r="E144" s="77"/>
+      <c r="F144" s="77"/>
+      <c r="G144" s="77"/>
+      <c r="H144" s="77"/>
+      <c r="I144" s="77"/>
+      <c r="J144" s="77"/>
+      <c r="K144" s="77"/>
+      <c r="L144" s="77"/>
+      <c r="M144" s="77"/>
+      <c r="N144" s="77"/>
+      <c r="O144" s="77"/>
+      <c r="P144" s="77"/>
+      <c r="Q144" s="77"/>
+      <c r="R144" s="77"/>
+      <c r="S144" s="77"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A145" s="77"/>
+      <c r="B145" s="77"/>
+      <c r="C145" s="77"/>
+      <c r="D145" s="77"/>
+      <c r="E145" s="77"/>
+      <c r="F145" s="77"/>
+      <c r="G145" s="77"/>
+      <c r="H145" s="77"/>
+      <c r="I145" s="77"/>
+      <c r="J145" s="77"/>
+      <c r="K145" s="77"/>
+      <c r="L145" s="77"/>
+      <c r="M145" s="77"/>
+      <c r="N145" s="77"/>
+      <c r="O145" s="77"/>
+      <c r="P145" s="77"/>
+      <c r="Q145" s="77"/>
+      <c r="R145" s="77"/>
+      <c r="S145" s="77"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A146" s="77"/>
+      <c r="B146" s="77"/>
+      <c r="C146" s="77"/>
+      <c r="D146" s="77"/>
+      <c r="E146" s="77"/>
+      <c r="F146" s="77"/>
+      <c r="G146" s="77"/>
+      <c r="H146" s="77"/>
+      <c r="I146" s="77"/>
+      <c r="J146" s="77"/>
+      <c r="K146" s="77"/>
+      <c r="L146" s="77"/>
+      <c r="M146" s="77"/>
+      <c r="N146" s="77"/>
+      <c r="O146" s="77"/>
+      <c r="P146" s="77"/>
+      <c r="Q146" s="77"/>
+      <c r="R146" s="77"/>
+      <c r="S146" s="77"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A147" s="77"/>
+      <c r="B147" s="77"/>
+      <c r="C147" s="77"/>
+      <c r="D147" s="77"/>
+      <c r="E147" s="77"/>
+      <c r="F147" s="77"/>
+      <c r="G147" s="77"/>
+      <c r="H147" s="77"/>
+      <c r="I147" s="77"/>
+      <c r="J147" s="77"/>
+      <c r="K147" s="77"/>
+      <c r="L147" s="77"/>
+      <c r="M147" s="77"/>
+      <c r="N147" s="77"/>
+      <c r="O147" s="77"/>
+      <c r="P147" s="77"/>
+      <c r="Q147" s="77"/>
+      <c r="R147" s="77"/>
+      <c r="S147" s="77"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A148" s="77"/>
+      <c r="B148" s="77"/>
+      <c r="C148" s="77"/>
+      <c r="D148" s="77"/>
+      <c r="E148" s="77"/>
+      <c r="F148" s="77"/>
+      <c r="G148" s="77"/>
+      <c r="H148" s="77"/>
+      <c r="I148" s="77"/>
+      <c r="J148" s="77"/>
+      <c r="K148" s="77"/>
+      <c r="L148" s="77"/>
+      <c r="M148" s="77"/>
+      <c r="N148" s="77"/>
+      <c r="O148" s="77"/>
+      <c r="P148" s="77"/>
+      <c r="Q148" s="77"/>
+      <c r="R148" s="77"/>
+      <c r="S148" s="77"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A149" s="77"/>
+      <c r="B149" s="77"/>
+      <c r="C149" s="77"/>
+      <c r="D149" s="77"/>
+      <c r="E149" s="77"/>
+      <c r="F149" s="77"/>
+      <c r="G149" s="77"/>
+      <c r="H149" s="77"/>
+      <c r="I149" s="77"/>
+      <c r="J149" s="77"/>
+      <c r="K149" s="77"/>
+      <c r="L149" s="77"/>
+      <c r="M149" s="77"/>
+      <c r="N149" s="77"/>
+      <c r="O149" s="77"/>
+      <c r="P149" s="77"/>
+      <c r="Q149" s="77"/>
+      <c r="R149" s="77"/>
+      <c r="S149" s="77"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A150" s="77"/>
+      <c r="B150" s="77"/>
+      <c r="C150" s="77"/>
+      <c r="D150" s="77"/>
+      <c r="E150" s="77"/>
+      <c r="F150" s="77"/>
+      <c r="G150" s="77"/>
+      <c r="H150" s="77"/>
+      <c r="I150" s="77"/>
+      <c r="J150" s="77"/>
+      <c r="K150" s="77"/>
+      <c r="L150" s="77"/>
+      <c r="M150" s="77"/>
+      <c r="N150" s="77"/>
+      <c r="O150" s="77"/>
+      <c r="P150" s="77"/>
+      <c r="Q150" s="77"/>
+      <c r="R150" s="77"/>
+      <c r="S150" s="77"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A151" s="77"/>
+      <c r="B151" s="77"/>
+      <c r="C151" s="77"/>
+      <c r="D151" s="77"/>
+      <c r="E151" s="77"/>
+      <c r="F151" s="77"/>
+      <c r="G151" s="77"/>
+      <c r="H151" s="77"/>
+      <c r="I151" s="77"/>
+      <c r="J151" s="77"/>
+      <c r="K151" s="77"/>
+      <c r="L151" s="77"/>
+      <c r="M151" s="77"/>
+      <c r="N151" s="77"/>
+      <c r="O151" s="77"/>
+      <c r="P151" s="77"/>
+      <c r="Q151" s="77"/>
+      <c r="R151" s="77"/>
+      <c r="S151" s="77"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A152" s="77"/>
+      <c r="B152" s="77"/>
+      <c r="C152" s="77"/>
+      <c r="D152" s="77"/>
+      <c r="E152" s="77"/>
+      <c r="F152" s="77"/>
+      <c r="G152" s="77"/>
+      <c r="H152" s="77"/>
+      <c r="I152" s="77"/>
+      <c r="J152" s="77"/>
+      <c r="K152" s="77"/>
+      <c r="L152" s="77"/>
+      <c r="M152" s="77"/>
+      <c r="N152" s="77"/>
+      <c r="O152" s="77"/>
+      <c r="P152" s="77"/>
+      <c r="Q152" s="77"/>
+      <c r="R152" s="77"/>
+      <c r="S152" s="77"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A153" s="77"/>
+      <c r="B153" s="77"/>
+      <c r="C153" s="77"/>
+      <c r="D153" s="77"/>
+      <c r="E153" s="77"/>
+      <c r="F153" s="77"/>
+      <c r="G153" s="77"/>
+      <c r="H153" s="77"/>
+      <c r="I153" s="77"/>
+      <c r="J153" s="77"/>
+      <c r="K153" s="77"/>
+      <c r="L153" s="77"/>
+      <c r="M153" s="77"/>
+      <c r="N153" s="77"/>
+      <c r="O153" s="77"/>
+      <c r="P153" s="77"/>
+      <c r="Q153" s="77"/>
+      <c r="R153" s="77"/>
+      <c r="S153" s="77"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A154" s="77"/>
+      <c r="B154" s="77"/>
+      <c r="C154" s="77"/>
+      <c r="D154" s="77"/>
+      <c r="E154" s="77"/>
+      <c r="F154" s="77"/>
+      <c r="G154" s="77"/>
+      <c r="H154" s="77"/>
+      <c r="I154" s="77"/>
+      <c r="J154" s="77"/>
+      <c r="K154" s="77"/>
+      <c r="L154" s="77"/>
+      <c r="M154" s="77"/>
+      <c r="N154" s="77"/>
+      <c r="O154" s="77"/>
+      <c r="P154" s="77"/>
+      <c r="Q154" s="77"/>
+      <c r="R154" s="77"/>
+      <c r="S154" s="77"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A155" s="77"/>
+      <c r="B155" s="77"/>
+      <c r="C155" s="77"/>
+      <c r="D155" s="77"/>
+      <c r="E155" s="77"/>
+      <c r="F155" s="77"/>
+      <c r="G155" s="77"/>
+      <c r="H155" s="77"/>
+      <c r="I155" s="77"/>
+      <c r="J155" s="77"/>
+      <c r="K155" s="77"/>
+      <c r="L155" s="77"/>
+      <c r="M155" s="77"/>
+      <c r="N155" s="77"/>
+      <c r="O155" s="77"/>
+      <c r="P155" s="77"/>
+      <c r="Q155" s="77"/>
+      <c r="R155" s="77"/>
+      <c r="S155" s="77"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A156" s="77"/>
+      <c r="B156" s="77"/>
+      <c r="C156" s="77"/>
+      <c r="D156" s="77"/>
+      <c r="E156" s="77"/>
+      <c r="F156" s="77"/>
+      <c r="G156" s="77"/>
+      <c r="H156" s="77"/>
+      <c r="I156" s="77"/>
+      <c r="J156" s="77"/>
+      <c r="K156" s="77"/>
+      <c r="L156" s="77"/>
+      <c r="M156" s="77"/>
+      <c r="N156" s="77"/>
+      <c r="O156" s="77"/>
+      <c r="P156" s="77"/>
+      <c r="Q156" s="77"/>
+      <c r="R156" s="77"/>
+      <c r="S156" s="77"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A157" s="77"/>
+      <c r="B157" s="77"/>
+      <c r="C157" s="77"/>
+      <c r="D157" s="77"/>
+      <c r="E157" s="77"/>
+      <c r="F157" s="77"/>
+      <c r="G157" s="77"/>
+      <c r="H157" s="77"/>
+      <c r="I157" s="77"/>
+      <c r="J157" s="77"/>
+      <c r="K157" s="77"/>
+      <c r="L157" s="77"/>
+      <c r="M157" s="77"/>
+      <c r="N157" s="77"/>
+      <c r="O157" s="77"/>
+      <c r="P157" s="77"/>
+      <c r="Q157" s="77"/>
+      <c r="R157" s="77"/>
+      <c r="S157" s="77"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A158" s="77"/>
+      <c r="B158" s="77"/>
+      <c r="C158" s="77"/>
+      <c r="D158" s="77"/>
+      <c r="E158" s="77"/>
+      <c r="F158" s="77"/>
+      <c r="G158" s="77"/>
+      <c r="H158" s="77"/>
+      <c r="I158" s="77"/>
+      <c r="J158" s="77"/>
+      <c r="K158" s="77"/>
+      <c r="L158" s="77"/>
+      <c r="M158" s="77"/>
+      <c r="N158" s="77"/>
+      <c r="O158" s="77"/>
+      <c r="P158" s="77"/>
+      <c r="Q158" s="77"/>
+      <c r="R158" s="77"/>
+      <c r="S158" s="77"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A159" s="77"/>
+      <c r="B159" s="77"/>
+      <c r="C159" s="77"/>
+      <c r="D159" s="77"/>
+      <c r="E159" s="77"/>
+      <c r="F159" s="77"/>
+      <c r="G159" s="77"/>
+      <c r="H159" s="77"/>
+      <c r="I159" s="77"/>
+      <c r="J159" s="77"/>
+      <c r="K159" s="77"/>
+      <c r="L159" s="77"/>
+      <c r="M159" s="77"/>
+      <c r="N159" s="77"/>
+      <c r="O159" s="77"/>
+      <c r="P159" s="77"/>
+      <c r="Q159" s="77"/>
+      <c r="R159" s="77"/>
+      <c r="S159" s="77"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A160" s="77"/>
+      <c r="B160" s="77"/>
+      <c r="C160" s="77"/>
+      <c r="D160" s="77"/>
+      <c r="E160" s="77"/>
+      <c r="F160" s="77"/>
+      <c r="G160" s="77"/>
+      <c r="H160" s="77"/>
+      <c r="I160" s="77"/>
+      <c r="J160" s="77"/>
+      <c r="K160" s="77"/>
+      <c r="L160" s="77"/>
+      <c r="M160" s="77"/>
+      <c r="N160" s="77"/>
+      <c r="O160" s="77"/>
+      <c r="P160" s="77"/>
+      <c r="Q160" s="77"/>
+      <c r="R160" s="77"/>
+      <c r="S160" s="77"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A161" s="77"/>
+      <c r="B161" s="77"/>
+      <c r="C161" s="77"/>
+      <c r="D161" s="77"/>
+      <c r="E161" s="77"/>
+      <c r="F161" s="77"/>
+      <c r="G161" s="77"/>
+      <c r="H161" s="77"/>
+      <c r="I161" s="77"/>
+      <c r="J161" s="77"/>
+      <c r="K161" s="77"/>
+      <c r="L161" s="77"/>
+      <c r="M161" s="77"/>
+      <c r="N161" s="77"/>
+      <c r="O161" s="77"/>
+      <c r="P161" s="77"/>
+      <c r="Q161" s="77"/>
+      <c r="R161" s="77"/>
+      <c r="S161" s="77"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A162" s="77"/>
+      <c r="B162" s="77"/>
+      <c r="C162" s="77"/>
+      <c r="D162" s="77"/>
+      <c r="E162" s="77"/>
+      <c r="F162" s="77"/>
+      <c r="G162" s="77"/>
+      <c r="H162" s="77"/>
+      <c r="I162" s="77"/>
+      <c r="J162" s="77"/>
+      <c r="K162" s="77"/>
+      <c r="L162" s="77"/>
+      <c r="M162" s="77"/>
+      <c r="N162" s="77"/>
+      <c r="O162" s="77"/>
+      <c r="P162" s="77"/>
+      <c r="Q162" s="77"/>
+      <c r="R162" s="77"/>
+      <c r="S162" s="77"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A163" s="77"/>
+      <c r="B163" s="77"/>
+      <c r="C163" s="77"/>
+      <c r="D163" s="77"/>
+      <c r="E163" s="77"/>
+      <c r="F163" s="77"/>
+      <c r="G163" s="77"/>
+      <c r="H163" s="77"/>
+      <c r="I163" s="77"/>
+      <c r="J163" s="77"/>
+      <c r="K163" s="77"/>
+      <c r="L163" s="77"/>
+      <c r="M163" s="77"/>
+      <c r="N163" s="77"/>
+      <c r="O163" s="77"/>
+      <c r="P163" s="77"/>
+      <c r="Q163" s="77"/>
+      <c r="R163" s="77"/>
+      <c r="S163" s="77"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A164" s="77"/>
+      <c r="B164" s="77"/>
+      <c r="C164" s="77"/>
+      <c r="D164" s="77"/>
+      <c r="E164" s="77"/>
+      <c r="F164" s="77"/>
+      <c r="G164" s="77"/>
+      <c r="H164" s="77"/>
+      <c r="I164" s="77"/>
+      <c r="J164" s="77"/>
+      <c r="K164" s="77"/>
+      <c r="L164" s="77"/>
+      <c r="M164" s="77"/>
+      <c r="N164" s="77"/>
+      <c r="O164" s="77"/>
+      <c r="P164" s="77"/>
+      <c r="Q164" s="77"/>
+      <c r="R164" s="77"/>
+      <c r="S164" s="77"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A165" s="77"/>
+      <c r="B165" s="77"/>
+      <c r="C165" s="77"/>
+      <c r="D165" s="77"/>
+      <c r="E165" s="77"/>
+      <c r="F165" s="77"/>
+      <c r="G165" s="77"/>
+      <c r="H165" s="77"/>
+      <c r="I165" s="77"/>
+      <c r="J165" s="77"/>
+      <c r="K165" s="77"/>
+      <c r="L165" s="77"/>
+      <c r="M165" s="77"/>
+      <c r="N165" s="77"/>
+      <c r="O165" s="77"/>
+      <c r="P165" s="77"/>
+      <c r="Q165" s="77"/>
+      <c r="R165" s="77"/>
+      <c r="S165" s="77"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A166" s="77"/>
+      <c r="B166" s="77"/>
+      <c r="C166" s="77"/>
+      <c r="D166" s="77"/>
+      <c r="E166" s="77"/>
+      <c r="F166" s="77"/>
+      <c r="G166" s="77"/>
+      <c r="H166" s="77"/>
+      <c r="I166" s="77"/>
+      <c r="J166" s="77"/>
+      <c r="K166" s="77"/>
+      <c r="L166" s="77"/>
+      <c r="M166" s="77"/>
+      <c r="N166" s="77"/>
+      <c r="O166" s="77"/>
+      <c r="P166" s="77"/>
+      <c r="Q166" s="77"/>
+      <c r="R166" s="77"/>
+      <c r="S166" s="77"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A167" s="77"/>
+      <c r="B167" s="77"/>
+      <c r="C167" s="77"/>
+      <c r="D167" s="77"/>
+      <c r="E167" s="77"/>
+      <c r="F167" s="77"/>
+      <c r="G167" s="77"/>
+      <c r="H167" s="77"/>
+      <c r="I167" s="77"/>
+      <c r="J167" s="77"/>
+      <c r="K167" s="77"/>
+      <c r="L167" s="77"/>
+      <c r="M167" s="77"/>
+      <c r="N167" s="77"/>
+      <c r="O167" s="77"/>
+      <c r="P167" s="77"/>
+      <c r="Q167" s="77"/>
+      <c r="R167" s="77"/>
+      <c r="S167" s="77"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>IF(C8&gt;1, TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>IF($C$8&lt;1, TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>IF(C9&gt;0, TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>IF(C9&lt;0, TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(C7&lt;0, TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(C7&gt;0, TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3" xr:uid="{BD04BF87-E498-8C4A-AFE3-816C714DD1DC}">
+      <formula1>"3%, 7%, 10%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{1F6D0722-F9A5-5243-947D-CCC9BF08A70C}">
+      <formula1>"5, 10"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="85" max="16383" man="1"/>
   </rowBreaks>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{30D33C76-7F0E-5046-B34D-865BB8C41991}">
+          <x14:formula1>
+            <xm:f>'Economic Data and Calculations'!$A$7:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Opal Lakes Dropbear Conservation Park.xlsx
+++ b/Opal Lakes Dropbear Conservation Park.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F11085-2B93-144A-B243-CCDC6A3F60F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C64172D-E95B-9C49-94E7-252520B47309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="DiscountRate">[1]Parameters!$C$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Economic Data and Calculations'!$A$1:$Q$116</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Minister Brief'!$A$1:$R$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Minister Brief'!$A$1:$R$47</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="139">
   <si>
     <t>Source</t>
   </si>
@@ -374,6 +374,90 @@
   </si>
   <si>
     <t>Discount rate</t>
+  </si>
+  <si>
+    <t>$ '000</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Proponent can fund their portion of CapEx.</t>
+  </si>
+  <si>
+    <t>BCR</t>
+  </si>
+  <si>
+    <t>CapEx and Operations overlap, so 6 year analysis period.</t>
+  </si>
+  <si>
+    <t>NPV/I</t>
+  </si>
+  <si>
+    <t>Avoided costs only apply for 4 years as the Opal Lakes Volunteer Brigade only ceases functioning once construction is fully complete.</t>
+  </si>
+  <si>
+    <t>Yes, three.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPP17-03 states that a discount rate sensitivity rate should be included. </t>
+  </si>
+  <si>
+    <t>Consumer surplus sensitivity has been included as it has a strong impact on the CBA results, it is material at 95% confidence interval lower bound.</t>
+  </si>
+  <si>
+    <t>Central estimate = $10 per household</t>
+  </si>
+  <si>
+    <t>Sensitivity 1 = $7.5 per household</t>
+  </si>
+  <si>
+    <t>Sensitivity 2 = $12 per household</t>
+  </si>
+  <si>
+    <t>Asset life</t>
+  </si>
+  <si>
+    <t>5 years</t>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t>If asset life can be extended then there is a strong positive impact on CBA results.</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>Consumer surplus, source data from rigorous WTP survey results that avoids double counting with avoided costs below.</t>
+  </si>
+  <si>
+    <t>Producer surplus, induced visitation from interstate and international.</t>
+  </si>
+  <si>
+    <t>Labour surplus, induced visitation from interstate and international.</t>
+  </si>
+  <si>
+    <t>Avoided costs to NSW residents (Opal Lakes Volunteer Brigade), these are separate to below calculations of consumer, producer and labour surplus.</t>
+  </si>
+  <si>
+    <t>Proponent surplus (Residual asset value to Opal Lakes Shire Council)</t>
+  </si>
+  <si>
+    <t>CapEx to NSW Government and Council, both 100% NSW-owned.</t>
+  </si>
+  <si>
+    <t>Excluded</t>
+  </si>
+  <si>
+    <t>The proponent claims visitation by NSW residents. They have not provided a reliable source for estimated visitation, have made up the nightly spend and this has double counting with the WTP survey results for consumer surplus.</t>
   </si>
 </sst>
 </file>
@@ -582,7 +666,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,6 +740,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +969,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1037,6 +1133,31 @@
     <xf numFmtId="10" fontId="14" fillId="0" borderId="9" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="16" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Bad 2" xfId="1" xr:uid="{B03EBECC-4434-4525-8FB0-19D98432DF3E}"/>
@@ -1058,21 +1179,21 @@
   <dxfs count="8">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1108,21 +1229,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2279,7 +2400,30 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="M2">
+            <v>10</v>
+          </cell>
+          <cell r="N2">
+            <v>7.5</v>
+          </cell>
+          <cell r="O2">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="M3">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="N3">
+            <v>0.03</v>
+          </cell>
+          <cell r="O3">
+            <v>0.1</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
@@ -4679,8 +4823,8 @@
   </sheetPr>
   <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8532,26 +8676,26 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>IF($C$8&lt;1, TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>IF(C8&gt;1, TRUE, FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>IF($C$8&lt;1, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>IF(C9&gt;0, TRUE, FALSE)</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>IF(C9&lt;0, TRUE, FALSE)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>IF(C9&gt;0, TRUE, FALSE)</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(C7&lt;0, TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>IF(C7&gt;0, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8588,9 +8732,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8603,26 +8749,22 @@
     <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -8636,11 +8778,13 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -8654,11 +8798,16 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="91">
+        <v>5155.2773394444084</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -8672,11 +8821,16 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="60">
+        <v>1.0325572762231112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -8690,11 +8844,16 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="60">
+        <v>5.1928920148008872E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -8708,238 +8867,260 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
+      <c r="H10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="92">
+        <f>'[2]Cost-Benefit Analysis'!N3</f>
+        <v>0.03</v>
+      </c>
+      <c r="E11" s="92">
+        <f>'[2]Cost-Benefit Analysis'!M3</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F11" s="92">
+        <f>'[2]Cost-Benefit Analysis'!O3</f>
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="93">
+        <v>22641.673201955244</v>
+      </c>
+      <c r="E12" s="93">
+        <v>5155.2773394444084</v>
+      </c>
+      <c r="F12" s="93">
+        <v>-5949.3681926843419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="94">
+        <v>1.1417504354946415</v>
+      </c>
+      <c r="E13" s="94">
+        <v>1.0325572762231112</v>
+      </c>
+      <c r="F13" s="94">
+        <v>0.96219568475563066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="94">
+        <v>0.22609222575325397</v>
+      </c>
+      <c r="E14" s="94">
+        <v>5.1928920148008872E-2</v>
+      </c>
+      <c r="F14" s="94">
+        <v>-6.0297957793577599E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C16" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="95">
+        <f>'[2]Cost-Benefit Analysis'!N2</f>
+        <v>7.5</v>
+      </c>
+      <c r="E16" s="95">
+        <f>'[2]Cost-Benefit Analysis'!M2</f>
+        <v>10</v>
+      </c>
+      <c r="F16" s="95">
+        <f>'[2]Cost-Benefit Analysis'!O2</f>
+        <v>12</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="C17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="93">
+        <v>-1355.522660555609</v>
+      </c>
+      <c r="E17" s="93">
+        <v>5155.2773394444084</v>
+      </c>
+      <c r="F17" s="93">
+        <v>10363.917339444393</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="C18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="96">
+        <v>0.99143942744869828</v>
+      </c>
+      <c r="E18" s="94">
+        <v>1.0325572762231112</v>
+      </c>
+      <c r="F18" s="96">
+        <v>1.0654515552426416</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="C19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="96">
+        <v>-1.3654130197851758E-2</v>
+      </c>
+      <c r="E19" s="94">
+        <v>5.1928920148008872E-2</v>
+      </c>
+      <c r="F19" s="96">
+        <v>0.10439536042469709</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="H21" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="C22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="93">
+        <v>5155.2773394444084</v>
+      </c>
+      <c r="E22" s="93">
+        <v>62493.625893521035</v>
+      </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -8949,15 +9130,15 @@
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="C23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="94">
+        <v>1.0325572762231112</v>
+      </c>
+      <c r="E23" s="96">
+        <v>1.3946678532368575</v>
+      </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -8967,15 +9148,15 @@
       <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="C24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="94">
+        <v>5.1928920148008872E-2</v>
+      </c>
+      <c r="E24" s="96">
+        <v>0.62949600867330568</v>
+      </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
@@ -8985,32 +9166,29 @@
       <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-    </row>
-    <row r="27" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -9032,245 +9210,145 @@
       <c r="U27" s="13"/>
     </row>
     <row r="28" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
+      <c r="B28" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
       <c r="U28" s="13"/>
     </row>
     <row r="29" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
+      <c r="C29" s="101">
+        <v>26043.200000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="93"/>
       <c r="U29" s="13"/>
     </row>
     <row r="30" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
+      <c r="C30" s="101">
+        <v>40487.70024094484</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="93"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
+    <row r="31" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="101">
+        <v>49484.966961154802</v>
+      </c>
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="93"/>
       <c r="U31" s="13"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
+      <c r="C32" s="101">
+        <v>47484.269950428854</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="93"/>
       <c r="U32" s="13"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
+      <c r="C33" s="101">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" s="93"/>
       <c r="U33" s="13"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
       <c r="U34" s="13"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
+      <c r="B35" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="103"/>
       <c r="U35" s="13"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
+      <c r="C36" s="93">
+        <v>158344.8598130841</v>
+      </c>
+      <c r="D36" t="s">
+        <v>136</v>
+      </c>
+      <c r="J36" s="93"/>
       <c r="U36" s="13"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
       <c r="U37" s="13"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
+      <c r="B38" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="104"/>
       <c r="U38" s="13"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
@@ -9448,6 +9526,28 @@
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
